--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunweiw/github/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA3440-4FE6-C84E-9322-EC971A2EA312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FAD40-0710-9C4B-87C9-078AF63027A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19660" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19660" activeTab="4" xr2:uid="{E237B5C9-17F5-F743-97D1-689D0C3E034C}"/>
+    <workbookView xWindow="-55860" yWindow="-3520" windowWidth="47500" windowHeight="23100" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -67,7 +66,6 @@
     <author>tc={B414CC66-241E-2941-9511-E5A9A2CC718A}</author>
     <author>tc={F366D5F7-196A-3845-BEF2-50CD06C3E313}</author>
     <author>tc={CC199657-803B-CB4B-8A31-16982CABD678}</author>
-    <author>tc={FA9E87CE-C1DB-1A4F-B73E-3D9601E7A65B}</author>
   </authors>
   <commentList>
     <comment ref="C32" authorId="0" shapeId="0" xr:uid="{B414CC66-241E-2941-9511-E5A9A2CC718A}">
@@ -92,14 +90,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Why is this a SHALL requirement? I think it is more like a SHOULD as a recommendation to developers</t>
-      </text>
-    </comment>
-    <comment ref="D510" authorId="3" shapeId="0" xr:uid="{FA9E87CE-C1DB-1A4F-B73E-3D9601E7A65B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This is a MAY request</t>
       </text>
     </comment>
   </commentList>
@@ -129,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="1153">
   <si>
     <r>
       <rPr>
@@ -5189,12 +5179,15 @@
   <si>
     <t>Need fix</t>
   </si>
+  <si>
+    <t>Duplicate to req 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5338,12 +5331,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -5774,6 +5761,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5795,8 +5784,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6138,17 +6125,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C32" dT="2025-07-03T14:33:51.09" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{B414CC66-241E-2941-9511-E5A9A2CC718A}">
+  <threadedComment ref="C32" dT="2025-07-03T14:33:51.09" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{B414CC66-241E-2941-9511-E5A9A2CC718A}" done="1">
     <text>This is duplicate as line 1. And from the context, this is more like a statement than a requirement.</text>
   </threadedComment>
-  <threadedComment ref="D261" dT="2025-07-03T14:25:59.01" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{F366D5F7-196A-3845-BEF2-50CD06C3E313}">
+  <threadedComment ref="D261" dT="2025-07-03T14:25:59.01" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{F366D5F7-196A-3845-BEF2-50CD06C3E313}" done="1">
     <text>Searching with encounter is not mandatory. So this should be SHOULD.</text>
   </threadedComment>
-  <threadedComment ref="D273" dT="2025-07-03T15:39:31.77" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{CC199657-803B-CB4B-8A31-16982CABD678}">
+  <threadedComment ref="D273" dT="2025-07-03T15:39:31.77" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{CC199657-803B-CB4B-8A31-16982CABD678}" done="1">
     <text>Why is this a SHALL requirement? I think it is more like a SHOULD as a recommendation to developers</text>
-  </threadedComment>
-  <threadedComment ref="D510" dT="2025-07-03T17:35:36.91" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{FA9E87CE-C1DB-1A4F-B73E-3D9601E7A65B}">
-    <text>This is a MAY request</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -6160,7 +6144,6 @@
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6194,14 +6177,14 @@
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="46"/>
       <c r="C5" s="26"/>
     </row>
@@ -6213,19 +6196,19 @@
       <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
     </row>
@@ -6253,18 +6236,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W655"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D525" sqref="D525"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <pane ySplit="74" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6362,7 +6340,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6415,7 +6393,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6465,7 +6443,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -6519,7 +6497,7 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -6569,7 +6547,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -6619,7 +6597,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -6669,7 +6647,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -6719,7 +6697,7 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -6769,7 +6747,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -6819,7 +6797,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -6991,7 +6969,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -7044,7 +7022,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -7083,7 +7061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -7131,7 +7109,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7215,7 +7193,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -7263,7 +7241,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -7347,7 +7325,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -7389,7 +7367,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -7428,7 +7406,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -7473,7 +7451,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -7554,7 +7532,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -7596,7 +7574,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -7638,7 +7616,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -7674,7 +7652,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -7713,7 +7691,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -7756,14 +7734,14 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="58" t="s">
         <v>825</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>31</v>
@@ -7787,11 +7765,14 @@
         <f t="shared" si="1"/>
         <v>Server</v>
       </c>
+      <c r="V32" s="12" t="s">
+        <v>1152</v>
+      </c>
       <c r="W32" s="6" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -7827,7 +7808,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -7863,7 +7844,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -7899,7 +7880,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -7935,7 +7916,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -7971,7 +7952,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -8043,7 +8024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -8088,7 +8069,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -8130,7 +8111,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -8172,7 +8153,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -8214,7 +8195,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -8259,7 +8240,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -8301,7 +8282,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -8343,7 +8324,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -8385,7 +8366,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -8511,7 +8492,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -8550,7 +8531,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -8589,7 +8570,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -8628,7 +8609,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -8664,7 +8645,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -8700,7 +8681,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -8739,7 +8720,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -8775,7 +8756,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -8811,7 +8792,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -8850,7 +8831,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -8886,7 +8867,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -8923,7 +8904,7 @@
       </c>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -8962,7 +8943,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -9001,7 +8982,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -9082,7 +9063,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -9118,11 +9099,11 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="58" t="s">
         <v>980</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -9157,7 +9138,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -9196,7 +9177,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -9235,7 +9216,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -9274,7 +9255,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -9313,7 +9294,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -9352,7 +9333,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:23" s="41" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="41" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -9453,7 +9434,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -9504,7 +9485,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -9559,7 +9540,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -9598,7 +9579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -9679,7 +9660,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -9715,7 +9696,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -9754,7 +9735,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -9796,7 +9777,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -9832,7 +9813,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -9877,7 +9858,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -9934,7 +9915,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -10015,7 +9996,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -10057,7 +10038,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -10102,7 +10083,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -10144,7 +10125,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -10186,7 +10167,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -10225,7 +10206,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -10261,7 +10242,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -10303,7 +10284,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -10345,7 +10326,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -10384,7 +10365,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -10426,7 +10407,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -10465,7 +10446,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -10501,7 +10482,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -10540,7 +10521,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -10576,7 +10557,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -10612,7 +10593,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -10648,7 +10629,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -10684,7 +10665,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -10720,7 +10701,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -10762,7 +10743,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -10801,7 +10782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -10835,7 +10816,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -10869,7 +10850,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -10911,7 +10892,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -10950,7 +10931,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -10995,7 +10976,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -11037,7 +11018,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -11079,7 +11060,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -11121,7 +11102,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -11166,7 +11147,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -11208,7 +11189,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -11247,7 +11228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -11289,7 +11270,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -11334,7 +11315,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -11376,7 +11357,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -11415,7 +11396,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -11454,7 +11435,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -11496,7 +11477,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -11535,7 +11516,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -11571,7 +11552,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -11607,7 +11588,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -11643,7 +11624,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -11685,7 +11666,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -11721,7 +11702,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -11763,7 +11744,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -11799,7 +11780,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -11847,7 +11828,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -11892,7 +11873,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -11937,7 +11918,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -11982,7 +11963,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -12027,7 +12008,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -12072,7 +12053,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -12117,7 +12098,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -12162,7 +12143,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -12207,7 +12188,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -12252,7 +12233,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -12297,7 +12278,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -12342,7 +12323,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -12387,7 +12368,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -12432,7 +12413,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -12477,7 +12458,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -12522,7 +12503,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -12567,7 +12548,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -12612,7 +12593,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -12657,7 +12638,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -12702,7 +12683,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -12747,7 +12728,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -12792,7 +12773,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -12837,7 +12818,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -12882,7 +12863,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -12921,7 +12902,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -12960,7 +12941,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -13002,7 +12983,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -13044,7 +13025,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -13086,7 +13067,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -13128,7 +13109,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -13170,7 +13151,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -13212,7 +13193,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -13254,7 +13235,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -13296,7 +13277,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -13338,7 +13319,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -13386,11 +13367,11 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="65" t="s">
+      <c r="B169" s="58" t="s">
         <v>626</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -13431,7 +13412,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -13467,7 +13448,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -13503,7 +13484,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -13542,7 +13523,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -13578,7 +13559,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -13620,7 +13601,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -13659,7 +13640,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -13698,7 +13679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -13737,7 +13718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -13776,7 +13757,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -13815,7 +13796,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -13857,7 +13838,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -13902,7 +13883,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -13944,7 +13925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -13983,7 +13964,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -14025,7 +14006,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -14070,7 +14051,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -14115,7 +14096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -14160,7 +14141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -14199,7 +14180,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -14238,7 +14219,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -14280,7 +14261,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -14322,7 +14303,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -14364,7 +14345,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -14406,7 +14387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -14445,7 +14426,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -14487,7 +14468,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -14529,7 +14510,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -14571,7 +14552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -14613,7 +14594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -14655,7 +14636,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -14697,7 +14678,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -14736,7 +14717,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>201</v>
       </c>
@@ -14820,7 +14801,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -14859,7 +14840,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -14898,7 +14879,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -14937,7 +14918,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -14979,7 +14960,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -15021,7 +15002,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -15063,7 +15044,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -15105,7 +15086,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -15147,7 +15128,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -15189,7 +15170,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
@@ -15231,7 +15212,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -15273,7 +15254,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -15315,7 +15296,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -15357,7 +15338,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -15399,7 +15380,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -15438,7 +15419,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
@@ -15477,7 +15458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -15516,7 +15497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -15558,7 +15539,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -15600,7 +15581,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
@@ -15639,7 +15620,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -15681,7 +15662,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -15723,7 +15704,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -15762,7 +15743,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
@@ -15806,7 +15787,7 @@
       </c>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -15845,7 +15826,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
@@ -15873,7 +15854,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -15901,7 +15882,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
@@ -15929,7 +15910,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -15971,7 +15952,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
@@ -16010,7 +15991,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
@@ -16362,7 +16343,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
@@ -16393,7 +16374,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -16424,7 +16405,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -16455,7 +16436,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -16486,7 +16467,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -16529,7 +16510,7 @@
       <c r="A248" s="7">
         <v>247</v>
       </c>
-      <c r="B248" s="65" t="s">
+      <c r="B248" s="58" t="s">
         <v>848</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -16567,7 +16548,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -16606,7 +16587,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -16690,7 +16671,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -16732,11 +16713,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
-      <c r="B253" s="65" t="s">
+      <c r="B253" s="58" t="s">
         <v>630</v>
       </c>
       <c r="C253" s="8" t="s">
@@ -16777,7 +16758,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -16822,7 +16803,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -16909,7 +16890,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
@@ -16954,7 +16935,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>257</v>
       </c>
@@ -16993,7 +16974,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>258</v>
       </c>
@@ -17035,7 +17016,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>259</v>
       </c>
@@ -17077,7 +17058,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>260</v>
       </c>
@@ -17088,7 +17069,7 @@
         <v>734</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>31</v>
@@ -17164,7 +17145,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>262</v>
       </c>
@@ -17206,7 +17187,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>263</v>
       </c>
@@ -17245,7 +17226,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>264</v>
       </c>
@@ -17288,7 +17269,7 @@
       <c r="A266" s="7">
         <v>265</v>
       </c>
-      <c r="B266" s="65" t="s">
+      <c r="B266" s="58" t="s">
         <v>850</v>
       </c>
       <c r="C266" s="8" t="s">
@@ -17368,7 +17349,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>267</v>
       </c>
@@ -17407,7 +17388,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>268</v>
       </c>
@@ -17446,7 +17427,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
@@ -17488,7 +17469,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="356" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" ht="356" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>270</v>
       </c>
@@ -17530,7 +17511,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="356" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" ht="356" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>271</v>
       </c>
@@ -17583,7 +17564,7 @@
         <v>301</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>31</v>
@@ -17701,7 +17682,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
@@ -17744,7 +17725,7 @@
       <c r="A277" s="7">
         <v>276</v>
       </c>
-      <c r="B277" s="65" t="s">
+      <c r="B277" s="58" t="s">
         <v>633</v>
       </c>
       <c r="C277" s="8" t="s">
@@ -17908,7 +17889,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
@@ -17947,7 +17928,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -17986,7 +17967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -18022,7 +18003,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -18058,7 +18039,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -18094,7 +18075,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -18130,7 +18111,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
@@ -18166,7 +18147,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -18202,7 +18183,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
@@ -18238,7 +18219,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
@@ -18280,7 +18261,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
@@ -18316,7 +18297,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
@@ -18352,7 +18333,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
@@ -18394,7 +18375,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -18430,7 +18411,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
@@ -18466,7 +18447,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -18508,7 +18489,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -18547,7 +18528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -18586,7 +18567,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>298</v>
       </c>
@@ -18625,7 +18606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>299</v>
       </c>
@@ -18706,7 +18687,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>301</v>
       </c>
@@ -18745,7 +18726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
@@ -18787,11 +18768,11 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
-      <c r="B304" s="66" t="s">
+      <c r="B304" s="59" t="s">
         <v>635</v>
       </c>
       <c r="C304" s="8" t="s">
@@ -18829,7 +18810,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -18868,7 +18849,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>305</v>
       </c>
@@ -18994,7 +18975,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>308</v>
       </c>
@@ -19033,7 +19014,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>309</v>
       </c>
@@ -19072,7 +19053,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>310</v>
       </c>
@@ -19111,7 +19092,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>311</v>
       </c>
@@ -19150,7 +19131,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>312</v>
       </c>
@@ -19189,7 +19170,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -19231,7 +19212,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>314</v>
       </c>
@@ -19267,7 +19248,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>315</v>
       </c>
@@ -19303,7 +19284,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
         <v>316</v>
       </c>
@@ -19339,7 +19320,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
         <v>317</v>
       </c>
@@ -19456,7 +19437,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="7">
         <v>320</v>
       </c>
@@ -19495,7 +19476,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -19537,7 +19518,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>322</v>
       </c>
@@ -19576,7 +19557,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>323</v>
       </c>
@@ -19615,7 +19596,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="7">
         <v>324</v>
       </c>
@@ -19732,7 +19713,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -19771,7 +19752,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="7">
         <v>328</v>
       </c>
@@ -19810,7 +19791,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="7">
         <v>329</v>
       </c>
@@ -19849,7 +19830,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>330</v>
       </c>
@@ -19888,7 +19869,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>331</v>
       </c>
@@ -19930,7 +19911,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
         <v>332</v>
       </c>
@@ -19969,7 +19950,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
         <v>333</v>
       </c>
@@ -20008,7 +19989,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>334</v>
       </c>
@@ -20044,7 +20025,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>335</v>
       </c>
@@ -20080,7 +20061,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>336</v>
       </c>
@@ -20116,7 +20097,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>337</v>
       </c>
@@ -20152,7 +20133,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>338</v>
       </c>
@@ -20188,7 +20169,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>339</v>
       </c>
@@ -20227,7 +20208,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>340</v>
       </c>
@@ -20263,7 +20244,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A342" s="7">
         <v>341</v>
       </c>
@@ -20299,7 +20280,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -20338,7 +20319,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -20377,7 +20358,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>344</v>
       </c>
@@ -20416,7 +20397,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>345</v>
       </c>
@@ -20455,7 +20436,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="7">
         <v>346</v>
       </c>
@@ -20491,7 +20472,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A348" s="7">
         <v>347</v>
       </c>
@@ -20527,7 +20508,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>348</v>
       </c>
@@ -20563,7 +20544,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>349</v>
       </c>
@@ -20599,7 +20580,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A351" s="7">
         <v>350</v>
       </c>
@@ -20635,7 +20616,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="7">
         <v>351</v>
       </c>
@@ -20671,7 +20652,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -20707,7 +20688,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -20743,7 +20724,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -20779,7 +20760,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -20815,7 +20796,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -20857,7 +20838,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -20899,7 +20880,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -20938,7 +20919,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -20977,7 +20958,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -21016,7 +20997,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>361</v>
       </c>
@@ -21052,7 +21033,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
         <v>362</v>
       </c>
@@ -21127,7 +21108,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>364</v>
       </c>
@@ -21169,7 +21150,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>365</v>
       </c>
@@ -21211,7 +21192,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A367" s="7">
         <v>366</v>
       </c>
@@ -21247,7 +21228,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A368" s="7">
         <v>367</v>
       </c>
@@ -21283,7 +21264,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -21325,7 +21306,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A370" s="7">
         <v>369</v>
       </c>
@@ -21361,7 +21342,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="7">
         <v>370</v>
       </c>
@@ -21514,7 +21495,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -21553,7 +21534,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A376" s="7">
         <v>375</v>
       </c>
@@ -21595,7 +21576,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="7">
         <v>376</v>
       </c>
@@ -21634,7 +21615,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="7">
         <v>377</v>
       </c>
@@ -21670,7 +21651,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A379" s="7">
         <v>378</v>
       </c>
@@ -21709,7 +21690,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A380" s="7">
         <v>379</v>
       </c>
@@ -21751,7 +21732,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="7">
         <v>380</v>
       </c>
@@ -21787,7 +21768,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -21907,7 +21888,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A385" s="7">
         <v>384</v>
       </c>
@@ -21946,7 +21927,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A386" s="7">
         <v>385</v>
       </c>
@@ -21985,7 +21966,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A387" s="7">
         <v>386</v>
       </c>
@@ -22024,7 +22005,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -22063,7 +22044,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="7">
         <v>388</v>
       </c>
@@ -22099,7 +22080,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="7">
         <v>389</v>
       </c>
@@ -22174,7 +22155,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -22219,7 +22200,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A393" s="7">
         <v>392</v>
       </c>
@@ -22258,7 +22239,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="7">
         <v>393</v>
       </c>
@@ -22294,7 +22275,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="7">
         <v>394</v>
       </c>
@@ -22330,7 +22311,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A396" s="7">
         <v>395</v>
       </c>
@@ -22366,7 +22347,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A397" s="7">
         <v>396</v>
       </c>
@@ -22402,7 +22383,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -22444,7 +22425,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" s="7">
         <v>398</v>
       </c>
@@ -22483,7 +22464,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="7">
         <v>399</v>
       </c>
@@ -22519,7 +22500,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" s="7">
         <v>400</v>
       </c>
@@ -22555,7 +22536,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>401</v>
       </c>
@@ -22597,7 +22578,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A403" s="7">
         <v>402</v>
       </c>
@@ -22639,7 +22620,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
         <v>403</v>
       </c>
@@ -22675,7 +22656,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>404</v>
       </c>
@@ -22711,7 +22692,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -22756,7 +22737,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>406</v>
       </c>
@@ -22801,7 +22782,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
         <v>407</v>
       </c>
@@ -22837,7 +22818,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>408</v>
       </c>
@@ -22879,7 +22860,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>409</v>
       </c>
@@ -22915,7 +22896,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
         <v>410</v>
       </c>
@@ -22951,7 +22932,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -22996,7 +22977,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
         <v>412</v>
       </c>
@@ -23038,7 +23019,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
         <v>413</v>
       </c>
@@ -23080,7 +23061,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A415" s="7">
         <v>414</v>
       </c>
@@ -23125,7 +23106,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" s="7">
         <v>415</v>
       </c>
@@ -23167,7 +23148,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A417" s="7">
         <v>416</v>
       </c>
@@ -23209,7 +23190,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A418" s="7">
         <v>417</v>
       </c>
@@ -23245,7 +23226,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="7">
         <v>418</v>
       </c>
@@ -23290,7 +23271,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="7">
         <v>419</v>
       </c>
@@ -23326,7 +23307,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="7">
         <v>420</v>
       </c>
@@ -23362,7 +23343,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A422" s="7">
         <v>421</v>
       </c>
@@ -23404,7 +23385,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" s="7">
         <v>422</v>
       </c>
@@ -23443,7 +23424,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A424" s="7">
         <v>423</v>
       </c>
@@ -23482,7 +23463,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A425" s="7">
         <v>424</v>
       </c>
@@ -23521,7 +23502,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>425</v>
       </c>
@@ -23563,7 +23544,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" s="7">
         <v>426</v>
       </c>
@@ -23602,7 +23583,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A428" s="7">
         <v>427</v>
       </c>
@@ -23644,7 +23625,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A429" s="7">
         <v>428</v>
       </c>
@@ -23683,7 +23664,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A430" s="7">
         <v>429</v>
       </c>
@@ -23722,7 +23703,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" s="7">
         <v>430</v>
       </c>
@@ -23761,7 +23742,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A432" s="7">
         <v>431</v>
       </c>
@@ -23920,7 +23901,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" s="7">
         <v>435</v>
       </c>
@@ -23959,7 +23940,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A437" s="7">
         <v>436</v>
       </c>
@@ -23998,7 +23979,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A438" s="7">
         <v>437</v>
       </c>
@@ -24037,7 +24018,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A439" s="7">
         <v>438</v>
       </c>
@@ -24076,7 +24057,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A440" s="7">
         <v>439</v>
       </c>
@@ -24121,7 +24102,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" s="7">
         <v>440</v>
       </c>
@@ -24160,7 +24141,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A442" s="7">
         <v>441</v>
       </c>
@@ -24196,7 +24177,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" s="7">
         <v>442</v>
       </c>
@@ -24232,7 +24213,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A444" s="7">
         <v>443</v>
       </c>
@@ -24268,7 +24249,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" s="7">
         <v>444</v>
       </c>
@@ -24310,7 +24291,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A446" s="7">
         <v>445</v>
       </c>
@@ -24349,7 +24330,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A447" s="7">
         <v>446</v>
       </c>
@@ -24388,7 +24369,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A448" s="7">
         <v>447</v>
       </c>
@@ -24424,7 +24405,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -24460,7 +24441,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" s="7">
         <v>449</v>
       </c>
@@ -24499,7 +24480,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -24541,7 +24522,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -24583,7 +24564,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
@@ -24622,7 +24603,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
@@ -24661,7 +24642,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
@@ -24700,7 +24681,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -24739,7 +24720,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
@@ -24775,7 +24756,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
@@ -24811,7 +24792,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
@@ -24847,7 +24828,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -24892,7 +24873,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
@@ -24937,7 +24918,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
@@ -24979,7 +24960,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
@@ -25021,7 +25002,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -25066,7 +25047,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
@@ -25111,7 +25092,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
@@ -25153,7 +25134,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" s="7">
         <v>466</v>
       </c>
@@ -25184,7 +25165,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A468" s="7">
         <v>467</v>
       </c>
@@ -25262,7 +25243,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <v>469</v>
       </c>
@@ -25304,7 +25285,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="404" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:23" ht="404" x14ac:dyDescent="0.2">
       <c r="A471" s="7">
         <v>470</v>
       </c>
@@ -25343,7 +25324,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>471</v>
       </c>
@@ -25385,7 +25366,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A473" s="7">
         <v>472</v>
       </c>
@@ -25463,7 +25444,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A475" s="7">
         <v>474</v>
       </c>
@@ -25502,7 +25483,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <v>475</v>
       </c>
@@ -25544,7 +25525,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A477" s="7">
         <v>476</v>
       </c>
@@ -25577,7 +25558,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="7">
         <v>477</v>
       </c>
@@ -25613,7 +25594,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A479" s="7">
         <v>478</v>
       </c>
@@ -25649,7 +25630,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A480" s="7">
         <v>479</v>
       </c>
@@ -25685,7 +25666,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A481" s="7">
         <v>480</v>
       </c>
@@ -25724,7 +25705,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="7">
         <v>481</v>
       </c>
@@ -25760,7 +25741,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A483" s="7">
         <v>482</v>
       </c>
@@ -25805,7 +25786,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A484" s="7">
         <v>483</v>
       </c>
@@ -25847,7 +25828,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A485" s="7">
         <v>484</v>
       </c>
@@ -25892,7 +25873,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="486" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" s="7">
         <v>485</v>
       </c>
@@ -25934,7 +25915,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A487" s="7">
         <v>486</v>
       </c>
@@ -25979,7 +25960,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A488" s="7">
         <v>487</v>
       </c>
@@ -26021,7 +26002,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A489" s="7">
         <v>488</v>
       </c>
@@ -26063,7 +26044,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A490" s="7">
         <v>489</v>
       </c>
@@ -26102,7 +26083,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A491" s="7">
         <v>490</v>
       </c>
@@ -26141,7 +26122,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A492" s="7">
         <v>491</v>
       </c>
@@ -26180,7 +26161,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A493" s="7">
         <v>492</v>
       </c>
@@ -26219,7 +26200,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A494" s="7">
         <v>493</v>
       </c>
@@ -26258,7 +26239,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A495" s="7">
         <v>494</v>
       </c>
@@ -26297,7 +26278,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A496" s="7">
         <v>495</v>
       </c>
@@ -26336,7 +26317,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A497" s="7">
         <v>496</v>
       </c>
@@ -26375,7 +26356,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A498" s="7">
         <v>497</v>
       </c>
@@ -26414,7 +26395,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A499" s="7">
         <v>498</v>
       </c>
@@ -26453,7 +26434,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A500" s="7">
         <v>499</v>
       </c>
@@ -26492,7 +26473,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A501" s="7">
         <v>500</v>
       </c>
@@ -26531,7 +26512,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A502" s="7">
         <v>501</v>
       </c>
@@ -26570,7 +26551,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>502</v>
       </c>
@@ -26609,7 +26590,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>503</v>
       </c>
@@ -26648,7 +26629,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A505" s="7">
         <v>504</v>
       </c>
@@ -26687,7 +26668,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A506" s="7">
         <v>505</v>
       </c>
@@ -26726,7 +26707,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>506</v>
       </c>
@@ -26765,7 +26746,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>507</v>
       </c>
@@ -26804,7 +26785,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" s="7">
         <v>508</v>
       </c>
@@ -26850,14 +26831,14 @@
       <c r="A510" s="7">
         <v>509</v>
       </c>
-      <c r="B510" s="66" t="s">
+      <c r="B510" s="59" t="s">
         <v>902</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>527</v>
       </c>
       <c r="D510" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>31</v>
@@ -26888,7 +26869,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="511" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A511" s="7">
         <v>510</v>
       </c>
@@ -26928,7 +26909,7 @@
       <c r="A512" s="7">
         <v>511</v>
       </c>
-      <c r="B512" s="66" t="s">
+      <c r="B512" s="59" t="s">
         <v>903</v>
       </c>
       <c r="C512" s="8" t="s">
@@ -26966,7 +26947,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="513" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A513" s="7">
         <v>512</v>
       </c>
@@ -27005,7 +26986,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A514" s="7">
         <v>513</v>
       </c>
@@ -27041,7 +27022,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A515" s="7">
         <v>514</v>
       </c>
@@ -27080,7 +27061,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="516" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A516" s="7">
         <v>515</v>
       </c>
@@ -27119,7 +27100,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A517" s="7">
         <v>516</v>
       </c>
@@ -27164,7 +27145,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="518" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" s="7">
         <v>517</v>
       </c>
@@ -27206,7 +27187,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A519" s="7">
         <v>518</v>
       </c>
@@ -27251,7 +27232,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="520" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A520" s="7">
         <v>519</v>
       </c>
@@ -27293,7 +27274,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A521" s="7">
         <v>520</v>
       </c>
@@ -27338,7 +27319,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="522" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A522" s="7">
         <v>521</v>
       </c>
@@ -27380,7 +27361,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="523" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A523" s="7">
         <v>522</v>
       </c>
@@ -27422,7 +27403,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="524" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A524" s="7">
         <v>523</v>
       </c>
@@ -27500,7 +27481,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="526" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A526" s="7">
         <v>525</v>
       </c>
@@ -27536,7 +27517,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="527" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A527" s="7">
         <v>526</v>
       </c>
@@ -27572,7 +27553,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="528" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A528" s="7">
         <v>527</v>
       </c>
@@ -27611,7 +27592,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="7">
         <v>528</v>
       </c>
@@ -27647,7 +27628,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="7">
         <v>529</v>
       </c>
@@ -27683,7 +27664,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="7">
         <v>530</v>
       </c>
@@ -27719,7 +27700,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="7">
         <v>531</v>
       </c>
@@ -27755,7 +27736,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A533" s="7">
         <v>532</v>
       </c>
@@ -27794,7 +27775,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A534" s="7">
         <v>533</v>
       </c>
@@ -27833,7 +27814,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A535" s="7">
         <v>534</v>
       </c>
@@ -27864,7 +27845,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A536" s="7">
         <v>535</v>
       </c>
@@ -28019,7 +28000,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A541" s="7">
         <v>540</v>
       </c>
@@ -28050,7 +28031,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A542" s="7">
         <v>541</v>
       </c>
@@ -28078,7 +28059,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A543" s="7">
         <v>542</v>
       </c>
@@ -28106,7 +28087,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A544" s="7">
         <v>543</v>
       </c>
@@ -28140,7 +28121,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="545" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="7">
         <v>544</v>
       </c>
@@ -28168,7 +28149,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="546" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="7">
         <v>545</v>
       </c>
@@ -28196,7 +28177,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="547" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="7">
         <v>546</v>
       </c>
@@ -28224,7 +28205,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="7">
         <v>547</v>
       </c>
@@ -28252,7 +28233,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A549" s="7">
         <v>548</v>
       </c>
@@ -28280,7 +28261,7 @@
         <v>valueset</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A550" s="7">
         <v>549</v>
       </c>
@@ -28342,7 +28323,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A552" s="7">
         <v>551</v>
       </c>
@@ -28370,7 +28351,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A553" s="7">
         <v>552</v>
       </c>
@@ -28398,7 +28379,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A554" s="7">
         <v>553</v>
       </c>
@@ -28426,7 +28407,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="555" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A555" s="7">
         <v>554</v>
       </c>
@@ -28454,7 +28435,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A556" s="7">
         <v>555</v>
       </c>
@@ -28482,7 +28463,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="557" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A557" s="7">
         <v>556</v>
       </c>
@@ -28510,7 +28491,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="558" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A558" s="7">
         <v>557</v>
       </c>
@@ -28569,7 +28550,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A560" s="7">
         <v>559</v>
       </c>
@@ -28597,7 +28578,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="561" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A561" s="7">
         <v>560</v>
       </c>
@@ -28625,7 +28606,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="562" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A562" s="7">
         <v>561</v>
       </c>
@@ -28684,7 +28665,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="564" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="7">
         <v>563</v>
       </c>
@@ -28712,7 +28693,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="565" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A565" s="7">
         <v>564</v>
       </c>
@@ -28743,7 +28724,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="566" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A566" s="7">
         <v>565</v>
       </c>
@@ -28771,7 +28752,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="567" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="7">
         <v>566</v>
       </c>
@@ -28799,7 +28780,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="568" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="7">
         <v>567</v>
       </c>
@@ -28858,7 +28839,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="570" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A570" s="7">
         <v>569</v>
       </c>
@@ -28886,7 +28867,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="571" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A571" s="7">
         <v>570</v>
       </c>
@@ -28917,7 +28898,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="572" spans="1:23" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A572" s="7">
         <v>571</v>
       </c>
@@ -28979,7 +28960,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="574" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A574" s="7">
         <v>573</v>
       </c>
@@ -29007,7 +28988,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="575" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A575" s="7">
         <v>574</v>
       </c>
@@ -29035,7 +29016,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="576" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A576" s="7">
         <v>575</v>
       </c>
@@ -29063,7 +29044,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="577" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" s="7">
         <v>576</v>
       </c>
@@ -29091,7 +29072,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="578" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" s="7">
         <v>577</v>
       </c>
@@ -29119,7 +29100,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="579" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" s="7">
         <v>578</v>
       </c>
@@ -29147,7 +29128,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="580" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A580" s="7">
         <v>579</v>
       </c>
@@ -29175,7 +29156,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="581" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A581" s="7">
         <v>580</v>
       </c>
@@ -29203,7 +29184,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="582" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A582" s="7">
         <v>581</v>
       </c>
@@ -29231,7 +29212,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="583" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" s="7">
         <v>582</v>
       </c>
@@ -29296,11 +29277,11 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="585" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
-      <c r="B585" s="66" t="s">
+      <c r="B585" s="59" t="s">
         <v>903</v>
       </c>
       <c r="C585" s="8" t="s">
@@ -29338,7 +29319,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="586" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A586" s="7">
         <v>800</v>
       </c>
@@ -29358,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>801</v>
       </c>
@@ -29384,7 +29365,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="588" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A588" s="7">
         <v>802</v>
       </c>
@@ -29410,7 +29391,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="589" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A589" s="7">
         <v>803</v>
       </c>
@@ -29433,7 +29414,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="590" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A590" s="7">
         <v>804</v>
       </c>
@@ -29459,7 +29440,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="591" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A591" s="7">
         <v>805</v>
       </c>
@@ -29483,7 +29464,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="592" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A592" s="7">
         <v>806</v>
       </c>
@@ -29509,7 +29490,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="593" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A593" s="7">
         <v>807</v>
       </c>
@@ -29535,7 +29516,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="594" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A594" s="7">
         <v>808</v>
       </c>
@@ -29561,7 +29542,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="595" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" s="7">
         <v>809</v>
       </c>
@@ -29587,7 +29568,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="596" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A596" s="7">
         <v>810</v>
       </c>
@@ -29613,7 +29594,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="597" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A597" s="7">
         <v>811</v>
       </c>
@@ -29639,7 +29620,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="598" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A598" s="7">
         <v>812</v>
       </c>
@@ -29665,7 +29646,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="599" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A599" s="7">
         <v>813</v>
       </c>
@@ -29688,7 +29669,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="600" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A600" s="7">
         <v>814</v>
       </c>
@@ -29714,7 +29695,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="601" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A601" s="7">
         <v>815</v>
       </c>
@@ -29737,7 +29718,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="602" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A602" s="7">
         <v>816</v>
       </c>
@@ -29760,7 +29741,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="603" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A603" s="7">
         <v>817</v>
       </c>
@@ -29783,7 +29764,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="604" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A604" s="7">
         <v>818</v>
       </c>
@@ -29806,7 +29787,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="605" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A605" s="7">
         <v>819</v>
       </c>
@@ -29829,7 +29810,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="606" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A606" s="7">
         <v>820</v>
       </c>
@@ -29855,7 +29836,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="607" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A607" s="7">
         <v>821</v>
       </c>
@@ -29878,11 +29859,11 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="608" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A608" s="7">
         <v>822</v>
       </c>
-      <c r="B608" s="65" t="s">
+      <c r="B608" s="58" t="s">
         <v>633</v>
       </c>
       <c r="C608" s="8" t="s">
@@ -29901,7 +29882,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="609" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A609" s="7">
         <v>823</v>
       </c>
@@ -29924,7 +29905,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="610" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A610" s="7">
         <v>824</v>
       </c>
@@ -29947,7 +29928,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="611" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A611" s="7">
         <v>825</v>
       </c>
@@ -29967,7 +29948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A612" s="7">
         <v>826</v>
       </c>
@@ -30010,7 +29991,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="614" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A614" s="7">
         <v>828</v>
       </c>
@@ -30030,7 +30011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A615" s="7">
         <v>829</v>
       </c>
@@ -30050,7 +30031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A616" s="7">
         <v>830</v>
       </c>
@@ -30070,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A617" s="7">
         <v>831</v>
       </c>
@@ -30093,7 +30074,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="618" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A618" s="7">
         <v>832</v>
       </c>
@@ -30116,7 +30097,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="619" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A619" s="7">
         <v>833</v>
       </c>
@@ -30139,7 +30120,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="620" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A620" s="7">
         <v>834</v>
       </c>
@@ -30159,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A621" s="7">
         <v>835</v>
       </c>
@@ -30179,7 +30160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A622" s="7">
         <v>836</v>
       </c>
@@ -30202,7 +30183,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="623" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A623" s="7">
         <v>837</v>
       </c>
@@ -30222,7 +30203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A624" s="7">
         <v>838</v>
       </c>
@@ -30242,7 +30223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A625" s="7">
         <v>839</v>
       </c>
@@ -30265,7 +30246,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A626" s="7">
         <v>840</v>
       </c>
@@ -30291,7 +30272,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A627" s="7">
         <v>841</v>
       </c>
@@ -30311,7 +30292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A628" s="7">
         <v>842</v>
       </c>
@@ -30334,7 +30315,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>843</v>
       </c>
@@ -30357,7 +30338,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="630" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A630" s="7">
         <v>844</v>
       </c>
@@ -30377,11 +30358,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A631" s="7">
         <v>845</v>
       </c>
-      <c r="B631" s="65" t="s">
+      <c r="B631" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C631" s="8" t="s">
@@ -30400,7 +30381,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="632" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A632" s="7">
         <v>846</v>
       </c>
@@ -30423,7 +30404,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="633" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A633" s="7">
         <v>847</v>
       </c>
@@ -30443,7 +30424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A634" s="7">
         <v>848</v>
       </c>
@@ -30463,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A635" s="7">
         <v>849</v>
       </c>
@@ -30483,7 +30464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A636" s="7">
         <v>850</v>
       </c>
@@ -30503,7 +30484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A637" s="7">
         <v>851</v>
       </c>
@@ -30523,7 +30504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A638" s="7">
         <v>852</v>
       </c>
@@ -30549,7 +30530,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="639" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A639" s="7">
         <v>853</v>
       </c>
@@ -30572,7 +30553,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="640" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A640" s="7">
         <v>854</v>
       </c>
@@ -30595,7 +30576,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="641" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A641" s="7">
         <v>855</v>
       </c>
@@ -30615,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A642" s="7">
         <v>856</v>
       </c>
@@ -30641,7 +30622,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="643" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A643" s="7">
         <v>857</v>
       </c>
@@ -30661,7 +30642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A644" s="7">
         <v>858</v>
       </c>
@@ -30681,7 +30662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A645" s="7">
         <v>859</v>
       </c>
@@ -30701,7 +30682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A646" s="7">
         <v>860</v>
       </c>
@@ -30721,7 +30702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A647" s="7">
         <v>861</v>
       </c>
@@ -30744,7 +30725,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="648" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A648" s="7">
         <v>862</v>
       </c>
@@ -30770,7 +30751,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="649" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A649" s="7">
         <v>863</v>
       </c>
@@ -30793,7 +30774,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="650" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A650" s="7">
         <v>864</v>
       </c>
@@ -30816,7 +30797,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="651" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" s="7">
         <v>865</v>
       </c>
@@ -30839,7 +30820,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="652" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A652" s="7">
         <v>866</v>
       </c>
@@ -30862,7 +30843,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="653" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A653" s="7">
         <v>867</v>
       </c>
@@ -30885,7 +30866,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="654" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A654" s="7">
         <v>868</v>
       </c>
@@ -30908,7 +30889,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="655" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A655" s="7">
         <v>869</v>
       </c>
@@ -30929,25 +30910,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W655" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DEPRECATED"/>
-        <filter val="SHALL"/>
-        <filter val="SHALL NOT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="Server"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters blank="1">
-        <filter val="n"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W655" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B169" r:id="rId1" location="additional-us-core-requirements" xr:uid="{1640FE42-DDC3-4648-AFAA-22D5D9D70232}"/>
@@ -31001,9 +30964,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:B2"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31012,14 +30972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -31127,7 +31087,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31184,7 +31143,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -31259,6 +31217,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -31512,29 +31492,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31552,30 +31536,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunweiw/github/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FAD40-0710-9C4B-87C9-078AF63027A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7023C2-6F1B-564D-85E0-E316D8330894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55860" yWindow="-3520" windowWidth="47500" windowHeight="23100" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19660" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -60,44 +60,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B414CC66-241E-2941-9511-E5A9A2CC718A}</author>
-    <author>tc={F366D5F7-196A-3845-BEF2-50CD06C3E313}</author>
-    <author>tc={CC199657-803B-CB4B-8A31-16982CABD678}</author>
-  </authors>
-  <commentList>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{B414CC66-241E-2941-9511-E5A9A2CC718A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This is duplicate as line 1. And from the context, this is more like a statement than a requirement.</t>
-      </text>
-    </comment>
-    <comment ref="D261" authorId="1" shapeId="0" xr:uid="{F366D5F7-196A-3845-BEF2-50CD06C3E313}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Searching with encounter is not mandatory. So this should be SHOULD.</t>
-      </text>
-    </comment>
-    <comment ref="D273" authorId="2" shapeId="0" xr:uid="{CC199657-803B-CB4B-8A31-16982CABD678}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Why is this a SHALL requirement? I think it is more like a SHOULD as a recommendation to developers</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -5803,9 +5767,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Yunwei Wang" id="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" userId="S::YUNWEIW@MITRE.ORG::304fa8a3-f6b4-47c4-8daf-6dee396ec296" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6123,20 +6085,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C32" dT="2025-07-03T14:33:51.09" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{B414CC66-241E-2941-9511-E5A9A2CC718A}" done="1">
-    <text>This is duplicate as line 1. And from the context, this is more like a statement than a requirement.</text>
-  </threadedComment>
-  <threadedComment ref="D261" dT="2025-07-03T14:25:59.01" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{F366D5F7-196A-3845-BEF2-50CD06C3E313}" done="1">
-    <text>Searching with encounter is not mandatory. So this should be SHOULD.</text>
-  </threadedComment>
-  <threadedComment ref="D273" dT="2025-07-03T15:39:31.77" personId="{37F2600B-88C6-1343-8F82-D1B7908C9C14}" id="{CC199657-803B-CB4B-8A31-16982CABD678}" done="1">
-    <text>Why is this a SHALL requirement? I think it is more like a SHOULD as a recommendation to developers</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA7094-ECFF-0B4E-A5C9-6F41B8D76EEB}">
   <dimension ref="A1:C11"/>
@@ -6235,14 +6183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:W655"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25243,7 +25191,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <v>469</v>
       </c>
@@ -25324,7 +25272,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>471</v>
       </c>
@@ -30929,7 +30877,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId14"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -31230,15 +31177,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -31492,6 +31430,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -31511,14 +31458,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31536,4 +31475,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5CCC6B-D1B4-F64D-A06A-1F91246BC5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B885EF-E9C6-C248-A89D-DC3149FA7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50200" yWindow="-5200" windowWidth="40380" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="-57340" yWindow="-6540" windowWidth="40380" windowHeight="28200" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$W$656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$X$656</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1161">
   <si>
     <r>
       <rPr>
@@ -5163,6 +5163,12 @@
   </si>
   <si>
     <t>validation?</t>
+  </si>
+  <si>
+    <t>This is an error in the specification. See https://jira.hl7.org/browse/FHIR-51493</t>
+  </si>
+  <si>
+    <t>This is a known error in the specification. See https://jira.hl7.org/browse/FHIR-51493</t>
   </si>
 </sst>
 </file>
@@ -6202,10 +6208,10 @@
   <dimension ref="A1:X656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="V636" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I592" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X657" sqref="X657"/>
+      <selection pane="bottomRight" activeCell="L657" sqref="L657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6302,7 +6308,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6809,7 +6815,7 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="5" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -8073,7 +8079,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -8328,7 +8334,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="238" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -8493,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -8532,7 +8538,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -8754,7 +8760,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -8866,7 +8872,7 @@
       </c>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -9061,7 +9067,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -9178,7 +9184,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -9345,7 +9351,7 @@
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
     </row>
-    <row r="74" spans="1:23" s="36" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="36" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -9820,7 +9826,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -9916,7 +9922,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -9958,7 +9964,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -10204,7 +10210,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -10369,7 +10375,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -10444,7 +10450,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -10812,7 +10818,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -10893,7 +10899,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="272" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -11232,7 +11238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -11319,7 +11325,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -11397,7 +11403,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -11439,7 +11445,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -11586,7 +11592,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -11664,7 +11670,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -11742,7 +11748,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -11790,7 +11796,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -11835,7 +11841,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -11925,7 +11931,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -11970,7 +11976,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -12015,7 +12021,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -12060,7 +12066,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -12105,7 +12111,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -12330,7 +12336,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -12375,7 +12381,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -12420,7 +12426,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -12465,7 +12471,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -12510,7 +12516,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -12555,7 +12561,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -12600,7 +12606,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -12735,7 +12741,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -12780,7 +12786,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -12903,7 +12909,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -12945,7 +12951,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -12987,7 +12993,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -13029,7 +13035,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -13071,7 +13077,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -13113,7 +13119,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -13197,7 +13203,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -13281,7 +13287,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -13329,7 +13335,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -13446,7 +13452,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -13521,7 +13527,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -14721,7 +14727,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -14880,7 +14886,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -14922,7 +14928,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -14964,7 +14970,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -15006,7 +15012,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -15048,7 +15054,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -15090,7 +15096,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -15132,7 +15138,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
@@ -15174,7 +15180,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -15216,7 +15222,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -15258,7 +15264,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -15300,7 +15306,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -15459,7 +15465,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -15582,7 +15588,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -15624,7 +15630,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -15872,7 +15878,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -16085,7 +16091,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
@@ -16127,7 +16133,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -16169,7 +16175,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
@@ -16203,7 +16209,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
@@ -16237,7 +16243,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -16271,7 +16277,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -16468,7 +16474,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -16591,7 +16597,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -16675,7 +16681,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="221" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="221" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -16765,7 +16771,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -16852,7 +16858,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
@@ -17269,7 +17275,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>266</v>
       </c>
@@ -17389,7 +17395,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
@@ -17560,7 +17566,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
@@ -17602,7 +17608,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
@@ -18607,7 +18613,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>300</v>
       </c>
@@ -18688,7 +18694,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
@@ -18730,7 +18736,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
@@ -18772,7 +18778,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -18853,7 +18859,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>306</v>
       </c>
@@ -18895,7 +18901,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>307</v>
       </c>
@@ -19132,7 +19138,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -19321,7 +19327,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>318</v>
       </c>
@@ -19360,7 +19366,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -19438,7 +19444,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -20242,7 +20248,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -20281,7 +20287,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -20758,7 +20764,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -20800,7 +20806,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -20920,7 +20926,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -21112,7 +21118,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="221" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>365</v>
       </c>
@@ -21226,7 +21232,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -21379,7 +21385,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7">
         <v>372</v>
       </c>
@@ -21418,7 +21424,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="7">
         <v>373</v>
       </c>
@@ -21457,7 +21463,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -21496,7 +21502,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="7">
         <v>375</v>
       </c>
@@ -21652,7 +21658,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="7">
         <v>379</v>
       </c>
@@ -21766,7 +21772,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="7">
         <v>382</v>
       </c>
@@ -21808,7 +21814,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7">
         <v>383</v>
       </c>
@@ -21967,7 +21973,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -22078,7 +22084,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="7">
         <v>390</v>
       </c>
@@ -22117,7 +22123,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -22345,7 +22351,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -22498,7 +22504,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>401</v>
       </c>
@@ -22540,7 +22546,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7">
         <v>402</v>
       </c>
@@ -22654,7 +22660,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -22699,7 +22705,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>406</v>
       </c>
@@ -22780,7 +22786,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>408</v>
       </c>
@@ -22894,7 +22900,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -23023,7 +23029,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="7">
         <v>414</v>
       </c>
@@ -23305,7 +23311,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="7">
         <v>421</v>
       </c>
@@ -23464,7 +23470,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>425</v>
       </c>
@@ -23545,7 +23551,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="7">
         <v>427</v>
       </c>
@@ -23743,7 +23749,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="7">
         <v>432</v>
       </c>
@@ -23785,7 +23791,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="7">
         <v>433</v>
       </c>
@@ -23824,7 +23830,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7">
         <v>434</v>
       </c>
@@ -23863,7 +23869,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="7">
         <v>435</v>
       </c>
@@ -23902,7 +23908,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="7">
         <v>436</v>
       </c>
@@ -24019,7 +24025,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="7">
         <v>439</v>
       </c>
@@ -24211,7 +24217,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="7">
         <v>444</v>
       </c>
@@ -24442,7 +24448,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -24484,7 +24490,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -24643,7 +24649,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -24790,7 +24796,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -24835,7 +24841,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
@@ -24964,7 +24970,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -25009,7 +25015,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
@@ -25054,7 +25060,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
@@ -25205,7 +25211,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <v>469</v>
       </c>
@@ -25364,7 +25370,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7">
         <v>473</v>
       </c>
@@ -25445,7 +25451,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <v>475</v>
       </c>
@@ -25703,7 +25709,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7">
         <v>482</v>
       </c>
@@ -25790,7 +25796,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7">
         <v>484</v>
       </c>
@@ -25877,7 +25883,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7">
         <v>486</v>
       </c>
@@ -26006,7 +26012,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7">
         <v>489</v>
       </c>
@@ -26045,7 +26051,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7">
         <v>490</v>
       </c>
@@ -26084,7 +26090,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7">
         <v>491</v>
       </c>
@@ -26123,7 +26129,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7">
         <v>492</v>
       </c>
@@ -26162,7 +26168,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="7">
         <v>493</v>
       </c>
@@ -26201,7 +26207,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7">
         <v>494</v>
       </c>
@@ -26240,7 +26246,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="7">
         <v>495</v>
       </c>
@@ -26279,7 +26285,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="7">
         <v>496</v>
       </c>
@@ -26318,7 +26324,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="7">
         <v>497</v>
       </c>
@@ -26357,7 +26363,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="7">
         <v>498</v>
       </c>
@@ -26396,7 +26402,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="7">
         <v>499</v>
       </c>
@@ -26435,7 +26441,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="7">
         <v>500</v>
       </c>
@@ -26474,7 +26480,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="7">
         <v>501</v>
       </c>
@@ -26513,7 +26519,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>502</v>
       </c>
@@ -26552,7 +26558,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>503</v>
       </c>
@@ -26591,7 +26597,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7">
         <v>504</v>
       </c>
@@ -26630,7 +26636,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7">
         <v>505</v>
       </c>
@@ -26669,7 +26675,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>506</v>
       </c>
@@ -26708,7 +26714,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>507</v>
       </c>
@@ -26747,7 +26753,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7">
         <v>508</v>
       </c>
@@ -26867,7 +26873,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7">
         <v>511</v>
       </c>
@@ -27062,7 +27068,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="7">
         <v>516</v>
       </c>
@@ -27149,7 +27155,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7">
         <v>518</v>
       </c>
@@ -27236,7 +27242,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7">
         <v>520</v>
       </c>
@@ -27401,7 +27407,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7">
         <v>524</v>
       </c>
@@ -27737,7 +27743,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="7">
         <v>533</v>
       </c>
@@ -27776,7 +27782,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="7">
         <v>534</v>
       </c>
@@ -27807,7 +27813,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="7">
         <v>535</v>
       </c>
@@ -27838,7 +27844,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="537" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="7">
         <v>536</v>
       </c>
@@ -27869,7 +27875,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="538" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="7">
         <v>537</v>
       </c>
@@ -27900,7 +27906,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="539" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="7">
         <v>538</v>
       </c>
@@ -27931,7 +27937,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="7">
         <v>539</v>
       </c>
@@ -27962,7 +27968,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="7">
         <v>540</v>
       </c>
@@ -28049,7 +28055,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="7">
         <v>543</v>
       </c>
@@ -28254,7 +28260,7 @@
         <v>valueset</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="7">
         <v>550</v>
       </c>
@@ -28481,7 +28487,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="7">
         <v>558</v>
       </c>
@@ -28596,7 +28602,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="563" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="7">
         <v>562</v>
       </c>
@@ -28655,7 +28661,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="565" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="7">
         <v>564</v>
       </c>
@@ -28770,7 +28776,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="569" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="7">
         <v>568</v>
       </c>
@@ -28829,7 +28835,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="571" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="7">
         <v>570</v>
       </c>
@@ -28891,7 +28897,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="573" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="7">
         <v>572</v>
       </c>
@@ -29205,7 +29211,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="584" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="7">
         <v>583</v>
       </c>
@@ -29239,7 +29245,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="585" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
@@ -29301,7 +29307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:24" ht="153" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>801</v>
       </c>
@@ -29333,7 +29339,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="588" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7">
         <v>802</v>
       </c>
@@ -29365,7 +29371,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="589" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="7">
         <v>803</v>
       </c>
@@ -29394,7 +29400,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="590" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="7">
         <v>804</v>
       </c>
@@ -29426,7 +29432,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="591" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="7">
         <v>805</v>
       </c>
@@ -29485,7 +29491,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="593" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="7">
         <v>809</v>
       </c>
@@ -29546,7 +29552,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="595" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="7">
         <v>811</v>
       </c>
@@ -29578,7 +29584,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="596" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="7">
         <v>812</v>
       </c>
@@ -29636,7 +29642,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="598" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="7">
         <v>814</v>
       </c>
@@ -29737,7 +29743,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="602" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="7">
         <v>818</v>
       </c>
@@ -29763,7 +29769,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="603" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="7">
         <v>819</v>
       </c>
@@ -29841,7 +29847,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="606" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="7">
         <v>822</v>
       </c>
@@ -29867,7 +29873,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="607" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="7">
         <v>823</v>
       </c>
@@ -29893,7 +29899,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="608" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="7">
         <v>824</v>
       </c>
@@ -29959,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:24" ht="238" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:24" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7">
         <v>827</v>
       </c>
@@ -30045,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="7">
         <v>831</v>
       </c>
@@ -30071,7 +30077,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="616" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="7">
         <v>832</v>
       </c>
@@ -30097,7 +30103,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="617" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7">
         <v>833</v>
       </c>
@@ -30255,7 +30261,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="624" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="7">
         <v>840</v>
       </c>
@@ -30376,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>845</v>
       </c>
@@ -30402,7 +30408,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="630" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="7">
         <v>846</v>
       </c>
@@ -30534,7 +30540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="7">
         <v>852</v>
       </c>
@@ -30764,7 +30770,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="646" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="7">
         <v>862</v>
       </c>
@@ -30838,6 +30844,15 @@
       <c r="G648" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="K648" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L648" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V648" s="12" t="s">
+        <v>1159</v>
+      </c>
       <c r="W648" s="6" t="s">
         <v>1141</v>
       </c>
@@ -30868,7 +30883,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="650" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A650" s="7">
         <v>866</v>
       </c>
@@ -30886,6 +30901,15 @@
       </c>
       <c r="G650" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="K650" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L650" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V650" s="12" t="s">
+        <v>1159</v>
       </c>
       <c r="W650" s="6" t="s">
         <v>1141</v>
@@ -30917,7 +30941,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="652" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="7">
         <v>868</v>
       </c>
@@ -30963,7 +30987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="7">
         <v>870</v>
       </c>
@@ -31015,7 +31039,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="656" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="7">
         <v>872</v>
       </c>
@@ -31045,16 +31069,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W656" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:X656" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
+    <filterColumn colId="22">
       <filters>
-        <filter val="SHALL"/>
-        <filter val="SHALL NOT"/>
+        <filter val="y"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="23">
       <filters>
-        <filter val="Server"/>
+        <filter val="?"/>
+        <filter val="validation?"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B885EF-E9C6-C248-A89D-DC3149FA7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCE463-02EF-3B40-BA1A-210741E881CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57340" yWindow="-6540" windowWidth="40380" windowHeight="28200" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$X$656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$X$660</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="1168">
   <si>
     <r>
       <rPr>
@@ -5170,6 +5170,27 @@
   <si>
     <t>This is a known error in the specification. See https://jira.hl7.org/browse/FHIR-51493</t>
   </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-allergyintolerance.html#mandatory-and-must-support-data-elements</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a clinical status of the allergy (e.g., active or resolved)</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Have: a code that tells you what the patient is allergic to</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a verification status</t>
+  </si>
+  <si>
+    <t>Each AllergyIntolerance Must Support: a reaction manifestation</t>
+  </si>
+  <si>
+    <t>StructureDefinition-us-core-allergyintolerance</t>
+  </si>
+  <si>
+    <t>mandatory-and-must-support-data-elements</t>
+  </si>
 </sst>
 </file>
 
@@ -5321,7 +5342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5391,6 +5412,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5624,7 +5657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5772,6 +5805,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6205,13 +6250,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X656"/>
+  <dimension ref="A1:X660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I592" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I650" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L657" sqref="L657"/>
+      <selection pane="bottomRight" activeCell="C591" sqref="C591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6308,7 +6353,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6815,7 +6860,7 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -6876,7 +6921,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6937,7 +6982,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -7029,7 +7074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -7077,7 +7122,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -7119,7 +7164,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -7161,7 +7206,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -7209,7 +7254,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -7251,7 +7296,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -7293,7 +7338,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -7374,7 +7419,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -7542,7 +7587,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -7992,7 +8037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -8037,7 +8082,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -8079,7 +8124,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -8121,7 +8166,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -8208,7 +8253,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -8250,7 +8295,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -8292,7 +8337,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -8334,7 +8379,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -8376,7 +8421,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -8418,7 +8463,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -8499,7 +8544,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -8538,7 +8583,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -8649,7 +8694,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -8760,7 +8805,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -8872,7 +8917,7 @@
       </c>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -8911,7 +8956,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -8986,7 +9031,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -9067,7 +9112,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -9106,7 +9151,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -9145,7 +9190,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -9184,7 +9229,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -9351,7 +9396,7 @@
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
     </row>
-    <row r="74" spans="1:23" s="36" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="36" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -9402,7 +9447,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="36" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -9453,7 +9498,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="36" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -9586,7 +9631,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -9826,7 +9871,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -9922,7 +9967,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -9964,7 +10009,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -10093,7 +10138,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -10135,7 +10180,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -10210,7 +10255,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -10252,7 +10297,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -10333,7 +10378,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -10375,7 +10420,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -10450,7 +10495,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -10669,7 +10714,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -10818,7 +10863,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -10899,7 +10944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -11070,7 +11115,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -11238,7 +11283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -11283,7 +11328,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -11325,7 +11370,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -11364,7 +11409,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -11403,7 +11448,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -11445,7 +11490,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -11592,7 +11637,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -11670,7 +11715,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -11748,7 +11793,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -11796,7 +11841,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -11841,7 +11886,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -11886,7 +11931,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -11931,7 +11976,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -11976,7 +12021,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -12021,7 +12066,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -12066,7 +12111,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -12111,7 +12156,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -12156,7 +12201,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -12201,7 +12246,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -12246,7 +12291,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -12291,7 +12336,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -12336,7 +12381,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -12381,7 +12426,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -12426,7 +12471,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -12471,7 +12516,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -12516,7 +12561,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -12561,7 +12606,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -12606,7 +12651,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -12651,7 +12696,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -12696,7 +12741,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -12741,7 +12786,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -12786,7 +12831,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -12909,7 +12954,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -12951,7 +12996,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -12993,7 +13038,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -13035,7 +13080,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -13077,7 +13122,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -13119,7 +13164,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -13161,7 +13206,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -13203,7 +13248,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -13287,7 +13332,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -13335,7 +13380,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -13452,7 +13497,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -13527,7 +13572,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -14727,7 +14772,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -14886,7 +14931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -14928,7 +14973,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -14970,7 +15015,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -15012,7 +15057,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -15054,7 +15099,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -15096,7 +15141,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -15138,7 +15183,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
@@ -15180,7 +15225,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -15222,7 +15267,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -15264,7 +15309,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -15306,7 +15351,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -15465,7 +15510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -15507,7 +15552,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -15588,7 +15633,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -15630,7 +15675,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -15878,7 +15923,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -15998,7 +16043,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
@@ -16046,7 +16091,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -16091,7 +16136,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
@@ -16133,7 +16178,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -16175,7 +16220,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
@@ -16209,7 +16254,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
@@ -16243,7 +16288,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -16277,7 +16322,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -16474,7 +16519,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -16597,7 +16642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -16681,7 +16726,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -16726,7 +16771,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -16771,7 +16816,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -16858,7 +16903,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
@@ -17275,7 +17320,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>266</v>
       </c>
@@ -17395,7 +17440,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
@@ -17566,7 +17611,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
@@ -17608,7 +17653,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
@@ -18613,7 +18658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>300</v>
       </c>
@@ -18694,7 +18739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
@@ -18736,7 +18781,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
@@ -18778,7 +18823,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -18859,7 +18904,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>306</v>
       </c>
@@ -18901,7 +18946,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>307</v>
       </c>
@@ -19138,7 +19183,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -19327,7 +19372,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>318</v>
       </c>
@@ -19366,7 +19411,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -19444,7 +19489,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -20248,7 +20293,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -20287,7 +20332,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -20764,7 +20809,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -20806,7 +20851,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -20926,7 +20971,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -21118,7 +21163,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>365</v>
       </c>
@@ -21232,7 +21277,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -21385,7 +21430,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" s="7">
         <v>372</v>
       </c>
@@ -21424,7 +21469,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A374" s="7">
         <v>373</v>
       </c>
@@ -21463,7 +21508,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -21502,7 +21547,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A376" s="7">
         <v>375</v>
       </c>
@@ -21658,7 +21703,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A380" s="7">
         <v>379</v>
       </c>
@@ -21772,7 +21817,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A383" s="7">
         <v>382</v>
       </c>
@@ -21814,7 +21859,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A384" s="7">
         <v>383</v>
       </c>
@@ -21973,7 +22018,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -22084,7 +22129,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="7">
         <v>390</v>
       </c>
@@ -22123,7 +22168,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -22351,7 +22396,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -22504,7 +22549,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>401</v>
       </c>
@@ -22546,7 +22591,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A403" s="7">
         <v>402</v>
       </c>
@@ -22660,7 +22705,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -22705,7 +22750,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>406</v>
       </c>
@@ -22786,7 +22831,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>408</v>
       </c>
@@ -22900,7 +22945,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -23029,7 +23074,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A415" s="7">
         <v>414</v>
       </c>
@@ -23311,7 +23356,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A422" s="7">
         <v>421</v>
       </c>
@@ -23470,7 +23515,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>425</v>
       </c>
@@ -23551,7 +23596,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A428" s="7">
         <v>427</v>
       </c>
@@ -23749,7 +23794,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A433" s="7">
         <v>432</v>
       </c>
@@ -23791,7 +23836,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A434" s="7">
         <v>433</v>
       </c>
@@ -23830,7 +23875,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="7">
         <v>434</v>
       </c>
@@ -23869,7 +23914,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" s="7">
         <v>435</v>
       </c>
@@ -23908,7 +23953,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A437" s="7">
         <v>436</v>
       </c>
@@ -24025,7 +24070,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A440" s="7">
         <v>439</v>
       </c>
@@ -24217,7 +24262,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" s="7">
         <v>444</v>
       </c>
@@ -24448,7 +24493,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A451" s="7">
         <v>450</v>
       </c>
@@ -24490,7 +24535,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>451</v>
       </c>
@@ -24649,7 +24694,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>455</v>
       </c>
@@ -24796,7 +24841,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>459</v>
       </c>
@@ -24841,7 +24886,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>460</v>
       </c>
@@ -24970,7 +25015,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>463</v>
       </c>
@@ -25015,7 +25060,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>464</v>
       </c>
@@ -25060,7 +25105,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <v>465</v>
       </c>
@@ -25211,7 +25256,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <v>469</v>
       </c>
@@ -25292,7 +25337,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>471</v>
       </c>
@@ -25370,7 +25415,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" s="7">
         <v>473</v>
       </c>
@@ -25451,7 +25496,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <v>475</v>
       </c>
@@ -25709,7 +25754,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A483" s="7">
         <v>482</v>
       </c>
@@ -25796,7 +25841,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A485" s="7">
         <v>484</v>
       </c>
@@ -25883,7 +25928,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A487" s="7">
         <v>486</v>
       </c>
@@ -26012,7 +26057,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A490" s="7">
         <v>489</v>
       </c>
@@ -26051,7 +26096,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A491" s="7">
         <v>490</v>
       </c>
@@ -26090,7 +26135,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A492" s="7">
         <v>491</v>
       </c>
@@ -26129,7 +26174,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A493" s="7">
         <v>492</v>
       </c>
@@ -26168,7 +26213,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A494" s="7">
         <v>493</v>
       </c>
@@ -26207,7 +26252,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A495" s="7">
         <v>494</v>
       </c>
@@ -26246,7 +26291,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A496" s="7">
         <v>495</v>
       </c>
@@ -26285,7 +26330,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A497" s="7">
         <v>496</v>
       </c>
@@ -26324,7 +26369,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A498" s="7">
         <v>497</v>
       </c>
@@ -26363,7 +26408,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A499" s="7">
         <v>498</v>
       </c>
@@ -26402,7 +26447,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A500" s="7">
         <v>499</v>
       </c>
@@ -26441,7 +26486,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A501" s="7">
         <v>500</v>
       </c>
@@ -26480,7 +26525,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A502" s="7">
         <v>501</v>
       </c>
@@ -26519,7 +26564,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>502</v>
       </c>
@@ -26558,7 +26603,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>503</v>
       </c>
@@ -26597,7 +26642,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A505" s="7">
         <v>504</v>
       </c>
@@ -26636,7 +26681,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A506" s="7">
         <v>505</v>
       </c>
@@ -26675,7 +26720,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>506</v>
       </c>
@@ -26714,7 +26759,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>507</v>
       </c>
@@ -26753,7 +26798,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" s="7">
         <v>508</v>
       </c>
@@ -26873,7 +26918,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A512" s="7">
         <v>511</v>
       </c>
@@ -27068,7 +27113,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A517" s="7">
         <v>516</v>
       </c>
@@ -27155,7 +27200,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A519" s="7">
         <v>518</v>
       </c>
@@ -27242,7 +27287,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A521" s="7">
         <v>520</v>
       </c>
@@ -27407,7 +27452,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A525" s="7">
         <v>524</v>
       </c>
@@ -27743,7 +27788,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A534" s="7">
         <v>533</v>
       </c>
@@ -27782,7 +27827,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A535" s="7">
         <v>534</v>
       </c>
@@ -27813,7 +27858,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A536" s="7">
         <v>535</v>
       </c>
@@ -27844,7 +27889,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="537" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A537" s="7">
         <v>536</v>
       </c>
@@ -27875,7 +27920,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="538" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="7">
         <v>537</v>
       </c>
@@ -27906,7 +27951,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="539" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" s="7">
         <v>538</v>
       </c>
@@ -27937,7 +27982,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A540" s="7">
         <v>539</v>
       </c>
@@ -27968,7 +28013,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A541" s="7">
         <v>540</v>
       </c>
@@ -28055,7 +28100,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A544" s="7">
         <v>543</v>
       </c>
@@ -28260,7 +28305,7 @@
         <v>valueset</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="7">
         <v>550</v>
       </c>
@@ -28487,7 +28532,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A559" s="7">
         <v>558</v>
       </c>
@@ -28602,7 +28647,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="563" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="7">
         <v>562</v>
       </c>
@@ -28661,7 +28706,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="565" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A565" s="7">
         <v>564</v>
       </c>
@@ -28776,7 +28821,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="569" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" s="7">
         <v>568</v>
       </c>
@@ -28835,7 +28880,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="571" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A571" s="7">
         <v>570</v>
       </c>
@@ -28897,7 +28942,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="573" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A573" s="7">
         <v>572</v>
       </c>
@@ -29211,7 +29256,7 @@
         <v>current-binding-for-coded-elements</v>
       </c>
     </row>
-    <row r="584" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A584" s="7">
         <v>583</v>
       </c>
@@ -29245,7 +29290,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="585" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A585" s="7">
         <v>584</v>
       </c>
@@ -29276,7 +29321,7 @@
         <v>mandatory-and-must-support-data-elements</v>
       </c>
       <c r="O585" s="10" t="str">
-        <f t="shared" ref="O585" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
+        <f t="shared" ref="O585:O587" si="25">IF(ISNUMBER(SEARCH("MAY", C585)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C585)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C585)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C585)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C585)), "SHALL NOT", "")))))</f>
         <v/>
       </c>
       <c r="P585" s="10" t="str">
@@ -29287,170 +29332,199 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="586" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A586" s="7">
+        <v>585</v>
+      </c>
+      <c r="B586" s="52" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G586" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M586" s="9" t="str" cm="1">
+        <f t="array" ref="M586">PAGE_NAME(B586)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N586" s="9" t="str" cm="1">
+        <f t="array" ref="N586">SECTION_NAME(B586)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O586" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P586" s="10" t="str">
+        <f t="shared" ref="P586:P588" si="26">IF(ISNUMBER(SEARCH("server", C586)), "Server", IF(ISNUMBER(SEARCH("Server", C586)), "Server", IF(ISNUMBER(SEARCH("client", C586)), "Client", IF(ISNUMBER(SEARCH("Client", C586)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C586)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C586)), "Client", ""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A587" s="7">
+        <v>586</v>
+      </c>
+      <c r="B587" s="52" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C587" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G587" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M587" s="9" t="str" cm="1">
+        <f t="array" ref="M587">PAGE_NAME(B587)</f>
+        <v>StructureDefinition-us-core-allergyintolerance</v>
+      </c>
+      <c r="N587" s="9" t="str" cm="1">
+        <f t="array" ref="N587">SECTION_NAME(B587)</f>
+        <v>mandatory-and-must-support-data-elements</v>
+      </c>
+      <c r="O587" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P587" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A588" s="7">
+        <v>587</v>
+      </c>
+      <c r="B588" s="67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C588" s="68" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D588" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E588" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F588" s="55"/>
+      <c r="G588" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H588" s="69"/>
+      <c r="I588" s="70"/>
+      <c r="J588" s="70"/>
+      <c r="K588" s="70"/>
+      <c r="L588" s="70"/>
+      <c r="M588" s="71" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N588" s="71" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O588" s="72"/>
+      <c r="P588" s="72"/>
+      <c r="Q588" s="72"/>
+      <c r="R588" s="72"/>
+      <c r="S588" s="69"/>
+      <c r="T588" s="72"/>
+      <c r="U588" s="69"/>
+      <c r="V588" s="69"/>
+    </row>
+    <row r="589" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A589" s="7">
+        <v>588</v>
+      </c>
+      <c r="B589" s="67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C589" s="68" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D589" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E589" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F589" s="55"/>
+      <c r="G589" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H589" s="69"/>
+      <c r="I589" s="70"/>
+      <c r="J589" s="70"/>
+      <c r="K589" s="70"/>
+      <c r="L589" s="70"/>
+      <c r="M589" s="71" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N589" s="71" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O589" s="72"/>
+      <c r="P589" s="72"/>
+      <c r="Q589" s="72"/>
+      <c r="R589" s="72"/>
+      <c r="S589" s="69"/>
+      <c r="T589" s="72"/>
+      <c r="U589" s="69"/>
+      <c r="V589" s="69"/>
+    </row>
+    <row r="590" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="7">
         <v>800</v>
       </c>
-      <c r="B586" s="7" t="s">
+      <c r="B590" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C586" s="8" t="s">
+      <c r="C590" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="D586" s="7" t="s">
+      <c r="D590" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E586" s="7" t="s">
+      <c r="E590" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G586" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="7">
+      <c r="G590" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" ht="153" x14ac:dyDescent="0.2">
+      <c r="A591" s="7">
         <v>801</v>
       </c>
-      <c r="B587" s="7" t="s">
+      <c r="B591" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C587" s="8" t="s">
+      <c r="C591" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="D587" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E587" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G587" s="7" t="b">
+      <c r="D591" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G591" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H587" s="12" t="s">
+      <c r="H591" s="12" t="s">
         <v>1126</v>
-      </c>
-      <c r="V587" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W587" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X587" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="588" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="7">
-        <v>802</v>
-      </c>
-      <c r="B588" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C588" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D588" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E588" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G588" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H588" s="12" t="s">
-        <v>1125</v>
-      </c>
-      <c r="V588" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W588" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X588" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="589" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="7">
-        <v>803</v>
-      </c>
-      <c r="B589" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C589" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D589" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E589" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G589" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V589" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W589" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X589" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="590" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="7">
-        <v>804</v>
-      </c>
-      <c r="B590" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C590" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D590" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E590" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G590" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H590" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="V590" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W590" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X590" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="591" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="7">
-        <v>805</v>
-      </c>
-      <c r="B591" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="C591" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="D591" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E591" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F591" s="55"/>
-      <c r="G591" s="57" t="b">
-        <v>0</v>
       </c>
       <c r="V591" s="12" t="s">
         <v>406</v>
@@ -29462,15 +29536,15 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="592" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A592" s="7">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C592" s="8" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="D592" s="7" t="s">
         <v>30</v>
@@ -29482,24 +29556,27 @@
         <v>1</v>
       </c>
       <c r="H592" s="12" t="s">
-        <v>1123</v>
+        <v>1125</v>
+      </c>
+      <c r="V592" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="W592" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X592" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="593" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="593" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A593" s="7">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C593" s="8" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="D593" s="7" t="s">
         <v>30</v>
@@ -29508,10 +29585,7 @@
         <v>31</v>
       </c>
       <c r="G593" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H593" s="12" t="s">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="V593" s="12" t="s">
         <v>406</v>
@@ -29525,13 +29599,13 @@
     </row>
     <row r="594" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A594" s="7">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C594" s="8" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="D594" s="7" t="s">
         <v>30</v>
@@ -29543,36 +29617,37 @@
         <v>1</v>
       </c>
       <c r="H594" s="12" t="s">
-        <v>1121</v>
+        <v>1124</v>
+      </c>
+      <c r="V594" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="W594" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X594" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="595" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="595" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" s="7">
-        <v>811</v>
-      </c>
-      <c r="B595" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="C595" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D595" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E595" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G595" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H595" s="12" t="s">
-        <v>1120</v>
+        <v>805</v>
+      </c>
+      <c r="B595" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="C595" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="D595" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E595" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F595" s="55"/>
+      <c r="G595" s="57" t="b">
+        <v>0</v>
       </c>
       <c r="V595" s="12" t="s">
         <v>406</v>
@@ -29584,15 +29659,15 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="596" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A596" s="7">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C596" s="8" t="s">
-        <v>1154</v>
+        <v>669</v>
       </c>
       <c r="D596" s="7" t="s">
         <v>30</v>
@@ -29604,30 +29679,27 @@
         <v>1</v>
       </c>
       <c r="H596" s="12" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V596" s="12" t="s">
-        <v>406</v>
+        <v>1123</v>
       </c>
       <c r="W596" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X596" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="597" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="597" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A597" s="7">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C597" s="8" t="s">
-        <v>1153</v>
+        <v>670</v>
       </c>
       <c r="D597" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E597" s="7" t="s">
         <v>31</v>
@@ -29636,21 +29708,27 @@
         <v>1</v>
       </c>
       <c r="H597" s="12" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="V597" s="12" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="598" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W597" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X597" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="598" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A598" s="7">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C598" s="8" t="s">
-        <v>1152</v>
+        <v>672</v>
       </c>
       <c r="D598" s="7" t="s">
         <v>30</v>
@@ -29662,96 +29740,114 @@
         <v>1</v>
       </c>
       <c r="H598" s="12" t="s">
-        <v>1117</v>
-      </c>
-      <c r="V598" s="12" t="s">
-        <v>406</v>
+        <v>1121</v>
       </c>
       <c r="W598" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X598" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="599" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="599" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A599" s="7">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>961</v>
+        <v>619</v>
       </c>
       <c r="C599" s="8" t="s">
-        <v>1115</v>
+        <v>673</v>
       </c>
       <c r="D599" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E599" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G599" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H599" s="12" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="600" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1120</v>
+      </c>
+      <c r="V599" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="W599" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X599" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="600" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A600" s="7">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>961</v>
+        <v>622</v>
       </c>
       <c r="C600" s="8" t="s">
-        <v>714</v>
+        <v>1154</v>
       </c>
       <c r="D600" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E600" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G600" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H600" s="12" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="601" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>1119</v>
+      </c>
+      <c r="V600" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="W600" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X600" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="601" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="7">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>961</v>
+        <v>622</v>
       </c>
       <c r="C601" s="8" t="s">
-        <v>715</v>
+        <v>1153</v>
       </c>
       <c r="D601" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E601" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G601" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H601" s="12" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="602" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1118</v>
+      </c>
+      <c r="V601" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="602" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A602" s="7">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C602" s="8" t="s">
-        <v>716</v>
+        <v>1152</v>
       </c>
       <c r="D602" s="7" t="s">
         <v>30</v>
@@ -29760,102 +29856,99 @@
         <v>31</v>
       </c>
       <c r="G602" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H602" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="V602" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="W602" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X602" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="603" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="603" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="7">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>628</v>
+        <v>961</v>
       </c>
       <c r="C603" s="8" t="s">
-        <v>717</v>
+        <v>1115</v>
       </c>
       <c r="D603" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E603" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G603" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W603" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X603" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="604" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H603" s="12" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="604" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="7">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>632</v>
+        <v>961</v>
       </c>
       <c r="C604" s="8" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="D604" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E604" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G604" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H604" s="12" t="s">
-        <v>1112</v>
-      </c>
-      <c r="W604" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X604" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="605" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="605" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>632</v>
+        <v>961</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="D605" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E605" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G605" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H605" s="12" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="606" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="606" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A606" s="7">
-        <v>822</v>
-      </c>
-      <c r="B606" s="58" t="s">
-        <v>633</v>
+        <v>818</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="C606" s="8" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="D606" s="7" t="s">
         <v>30</v>
@@ -29873,15 +29966,15 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="607" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A607" s="7">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="D607" s="7" t="s">
         <v>30</v>
@@ -29899,15 +29992,15 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="608" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A608" s="7">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C608" s="8" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D608" s="7" t="s">
         <v>30</v>
@@ -29916,24 +30009,27 @@
         <v>31</v>
       </c>
       <c r="G608" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H608" s="12" t="s">
+        <v>1112</v>
       </c>
       <c r="W608" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X608" s="6" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="609" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="7">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D609" s="7" t="s">
         <v>33</v>
@@ -29942,127 +30038,142 @@
         <v>31</v>
       </c>
       <c r="G609" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H609" s="12" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="610" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A610" s="7">
+        <v>822</v>
+      </c>
+      <c r="B610" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="C610" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D610" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G610" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W610" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X610" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="611" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+      <c r="A611" s="7">
+        <v>823</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C611" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="D611" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E611" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G611" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W611" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X611" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="612" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A612" s="7">
+        <v>824</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C612" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D612" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G612" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W612" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X612" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="613" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="7">
+        <v>825</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C613" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D613" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E613" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G613" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="7">
         <v>826</v>
       </c>
-      <c r="B610" s="7" t="s">
+      <c r="B614" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C610" s="8" t="s">
+      <c r="C614" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="D610" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E610" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G610" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:24" ht="238" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="7">
-        <v>827</v>
-      </c>
-      <c r="B611" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C611" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="D611" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E611" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G611" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W611" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="X611" s="6" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="612" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="7">
-        <v>828</v>
-      </c>
-      <c r="B612" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C612" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D612" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E612" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G612" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:24" ht="238" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="7">
-        <v>829</v>
-      </c>
-      <c r="B613" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C613" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D613" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E613" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G613" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="7">
-        <v>830</v>
-      </c>
-      <c r="B614" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C614" s="8" t="s">
-        <v>750</v>
       </c>
       <c r="D614" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E614" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G614" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A615" s="7">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>639</v>
+        <v>1084</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D615" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E615" s="7" t="s">
         <v>31</v>
@@ -30071,24 +30182,24 @@
         <v>0</v>
       </c>
       <c r="W615" s="6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="X615" s="6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="616" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="7">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>639</v>
+        <v>1084</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D616" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E616" s="7" t="s">
         <v>31</v>
@@ -30096,77 +30207,59 @@
       <c r="G616" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W616" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X616" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="617" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:24" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B617" s="7" t="s">
-        <v>639</v>
+        <v>1084</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D617" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E617" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G617" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H617" s="12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="V617" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W617" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X617" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="618" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="7">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>639</v>
+        <v>1084</v>
       </c>
       <c r="C618" s="8" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D618" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E618" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G618" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A619" s="7">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B619" s="7" t="s">
         <v>639</v>
       </c>
       <c r="C619" s="8" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D619" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E619" s="7" t="s">
         <v>31</v>
@@ -30174,59 +30267,80 @@
       <c r="G619" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W619" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X619" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="620" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A620" s="7">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D620" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E620" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G620" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W620" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X620" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="621" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A621" s="7">
+        <v>833</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C621" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D621" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G621" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H620" s="12" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="621" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="7">
-        <v>837</v>
-      </c>
-      <c r="B621" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C621" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D621" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E621" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G621" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H621" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V621" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="W621" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X621" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="622" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="7">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D622" s="7" t="s">
         <v>33</v>
@@ -30238,41 +30352,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="7">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>1085</v>
+        <v>758</v>
       </c>
       <c r="D623" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E623" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G623" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="7">
+        <v>836</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C624" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D624" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E623" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G623" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H623" s="12" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="624" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="7">
-        <v>840</v>
-      </c>
-      <c r="B624" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C624" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D624" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E624" s="7" t="s">
         <v>31</v>
@@ -30281,30 +30392,21 @@
         <v>1</v>
       </c>
       <c r="H624" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="V624" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W624" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X624" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="625" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="625" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>774</v>
+        <v>642</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D625" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E625" s="7" t="s">
         <v>31</v>
@@ -30313,18 +30415,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="7">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>776</v>
+        <v>642</v>
       </c>
       <c r="C626" s="8" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D626" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E626" s="7" t="s">
         <v>31</v>
@@ -30332,22 +30434,16 @@
       <c r="G626" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W626" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X626" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="627" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="7">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>779</v>
+        <v>643</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>777</v>
+        <v>1085</v>
       </c>
       <c r="D627" s="7" t="s">
         <v>33</v>
@@ -30359,41 +30455,53 @@
         <v>1</v>
       </c>
       <c r="H627" s="12" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="628" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="628" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A628" s="7">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="D628" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E628" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G628" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H628" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="V628" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="W628" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X628" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="629" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
-        <v>845</v>
-      </c>
-      <c r="B629" s="58" t="s">
-        <v>784</v>
+        <v>841</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>774</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D629" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E629" s="7" t="s">
         <v>31</v>
@@ -30401,22 +30509,16 @@
       <c r="G629" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="W629" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X629" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="630" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A630" s="7">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D630" s="7" t="s">
         <v>30</v>
@@ -30425,30 +30527,24 @@
         <v>31</v>
       </c>
       <c r="G630" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H630" s="12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="V630" s="12" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="W630" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X630" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="631" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="7">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D631" s="7" t="s">
         <v>33</v>
@@ -30457,130 +30553,139 @@
         <v>31</v>
       </c>
       <c r="G631" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H631" s="12" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="632" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="7">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B632" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C632" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D632" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E632" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G632" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A633" s="7">
+        <v>845</v>
+      </c>
+      <c r="B633" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="C632" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D632" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E632" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G632" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="7">
-        <v>849</v>
-      </c>
-      <c r="B633" s="7" t="s">
-        <v>784</v>
-      </c>
       <c r="C633" s="8" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D633" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E633" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G633" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="634" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W633" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X633" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="634" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A634" s="7">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B634" s="7" t="s">
         <v>784</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D634" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E634" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G634" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H634" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V634" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="W634" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X634" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="635" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="7">
+        <v>847</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C635" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D635" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E634" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G634" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="7">
-        <v>851</v>
-      </c>
-      <c r="B635" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="C635" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="D635" s="7" t="s">
+      <c r="E635" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G635" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="7">
+        <v>848</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C636" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D636" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E635" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G635" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="7">
-        <v>852</v>
-      </c>
-      <c r="B636" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="C636" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="D636" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="E636" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G636" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H636" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="V636" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W636" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X636" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="637" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="7">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="D637" s="7" t="s">
         <v>30</v>
@@ -30589,47 +30694,41 @@
         <v>59</v>
       </c>
       <c r="G637" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H637" s="12" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="638" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="7">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C638" s="8" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="D638" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E638" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G638" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H638" s="12" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="639" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="7">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B639" s="7" t="s">
         <v>795</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D639" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E639" s="7" t="s">
         <v>31</v>
@@ -30638,15 +30737,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A640" s="7">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="C640" s="8" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D640" s="7" t="s">
         <v>30</v>
@@ -30658,64 +30757,73 @@
         <v>1</v>
       </c>
       <c r="H640" s="12" t="s">
-        <v>809</v>
+        <v>801</v>
+      </c>
+      <c r="V640" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="W640" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X640" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="641" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="641" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="7">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C641" s="8" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D641" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E641" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G641" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H641" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="642" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="7">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C642" s="8" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="D642" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E642" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G642" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H642" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="643" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="7">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C643" s="8" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D643" s="7" t="s">
         <v>33</v>
@@ -30727,35 +30835,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A644" s="7">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C644" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D644" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E644" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G644" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H644" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="W644" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X644" s="6" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="645" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="7">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="C645" s="8" t="s">
-        <v>1128</v>
+        <v>812</v>
       </c>
       <c r="D645" s="7" t="s">
         <v>33</v>
@@ -30764,79 +30881,61 @@
         <v>31</v>
       </c>
       <c r="G645" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H645" s="12" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="646" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="7">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="C646" s="8" t="s">
-        <v>1129</v>
+        <v>814</v>
       </c>
       <c r="D646" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E646" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G646" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H646" s="12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="V646" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="W646" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X646" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="647" spans="1:24" ht="170" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="7">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="C647" s="8" t="s">
-        <v>1130</v>
+        <v>813</v>
       </c>
       <c r="D647" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E647" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G647" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H647" s="12" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="648" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="7">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="C648" s="8" t="s">
-        <v>1127</v>
+        <v>815</v>
       </c>
       <c r="D648" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E648" s="7" t="s">
         <v>31</v>
@@ -30844,34 +30943,19 @@
       <c r="G648" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K648" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L648" s="22" t="s">
-        <v>1160</v>
-      </c>
-      <c r="V648" s="12" t="s">
-        <v>1159</v>
-      </c>
-      <c r="W648" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X648" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="649" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="649" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="7">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B649" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C649" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D649" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E649" s="7" t="s">
         <v>31</v>
@@ -30880,18 +30964,18 @@
         <v>1</v>
       </c>
       <c r="H649" s="12" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="650" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="650" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A650" s="7">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B650" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C650" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D650" s="7" t="s">
         <v>30</v>
@@ -30900,33 +30984,30 @@
         <v>31</v>
       </c>
       <c r="G650" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K650" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L650" s="22" t="s">
-        <v>1160</v>
+        <v>1</v>
+      </c>
+      <c r="H650" s="12" t="s">
+        <v>1136</v>
       </c>
       <c r="V650" s="12" t="s">
-        <v>1159</v>
+        <v>406</v>
       </c>
       <c r="W650" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X650" s="6" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="651" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="651" spans="1:24" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="7">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B651" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C651" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D651" s="7" t="s">
         <v>36</v>
@@ -30938,18 +31019,18 @@
         <v>1</v>
       </c>
       <c r="H651" s="12" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="652" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="652" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A652" s="7">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B652" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C652" s="8" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="D652" s="7" t="s">
         <v>30</v>
@@ -30959,43 +31040,55 @@
       </c>
       <c r="G652" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="K652" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L652" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V652" s="12" t="s">
+        <v>1159</v>
       </c>
       <c r="W652" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X652" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="653" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="653" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="7">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B653" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C653" s="8" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D653" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E653" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G653" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H653" s="12" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="654" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A654" s="7">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>622</v>
+        <v>880</v>
       </c>
       <c r="C654" s="8" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="D654" s="7" t="s">
         <v>30</v>
@@ -31004,27 +31097,33 @@
         <v>31</v>
       </c>
       <c r="G654" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H654" s="12" t="s">
-        <v>1151</v>
+        <v>0</v>
+      </c>
+      <c r="K654" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L654" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V654" s="12" t="s">
+        <v>1159</v>
       </c>
       <c r="W654" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="X654" s="6" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="655" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="655" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="7">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>622</v>
+        <v>880</v>
       </c>
       <c r="C655" s="8" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="D655" s="7" t="s">
         <v>36</v>
@@ -31036,18 +31135,18 @@
         <v>1</v>
       </c>
       <c r="H655" s="12" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="656" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="656" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A656" s="7">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>622</v>
+        <v>880</v>
       </c>
       <c r="C656" s="8" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="D656" s="7" t="s">
         <v>30</v>
@@ -31056,10 +31155,7 @@
         <v>31</v>
       </c>
       <c r="G656" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H656" s="12" t="s">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="W656" s="6" t="s">
         <v>1141</v>
@@ -31068,17 +31164,118 @@
         <v>1141</v>
       </c>
     </row>
+    <row r="657" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="7">
+        <v>869</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C657" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D657" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G657" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+      <c r="A658" s="7">
+        <v>870</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C658" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D658" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G658" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H658" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W658" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X658" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="659" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="7">
+        <v>871</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C659" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D659" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G659" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H659" s="12" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="660" spans="1:24" ht="68" x14ac:dyDescent="0.2">
+      <c r="A660" s="7">
+        <v>872</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C660" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D660" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E660" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G660" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H660" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W660" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X660" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X656" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="22">
+  <autoFilter ref="A1:X660" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="y"/>
+        <filter val="SHALL"/>
+        <filter val="SHALL NOT"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="23">
+    <filterColumn colId="4">
       <filters>
-        <filter val="?"/>
-        <filter val="validation?"/>
+        <filter val="Server"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -31095,8 +31292,8 @@
     <hyperlink ref="B510" r:id="rId9" location="mandatory-and-must-support-data-elements" xr:uid="{08DF7006-16A6-F44E-86E9-3263B32AD105}"/>
     <hyperlink ref="B512" r:id="rId10" location="mandatory-and-must-support-data-elements" xr:uid="{F7322B18-B8D9-804F-A812-42B788F45C4C}"/>
     <hyperlink ref="B585" r:id="rId11" location="mandatory-and-must-support-data-elements" xr:uid="{AE01349F-701A-AA4F-A4F8-1A4A910946B0}"/>
-    <hyperlink ref="B606" r:id="rId12" location="category-codes" xr:uid="{D02A04B1-91C2-F841-AF4E-F242CCC69AE3}"/>
-    <hyperlink ref="B629" r:id="rId13" location="mandatory-and-must-support-data-elements" xr:uid="{B8DB1B24-35F7-7B45-A1F4-06D7D9D7CB5A}"/>
+    <hyperlink ref="B610" r:id="rId12" location="category-codes" xr:uid="{D02A04B1-91C2-F841-AF4E-F242CCC69AE3}"/>
+    <hyperlink ref="B633" r:id="rId13" location="mandatory-and-must-support-data-elements" xr:uid="{B8DB1B24-35F7-7B45-A1F4-06D7D9D7CB5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31107,19 +31304,19 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G250 G252:G590 G592:G1048576</xm:sqref>
+          <xm:sqref>G1:G250 G596:G1048576 G252:G585 G590:G594</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 K408:K411 I657:I1048576 I2:I653 K524:K1048576</xm:sqref>
+          <xm:sqref>K418:K459 K467:K469 K471 K473:K482 K490:K516 K2:K11 K14:K84 K86:K391 K393:K405 K408:K411 I661:I1048576 K590:K1048576 K524:K585 I2:I585 I590:I657</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D590 D592:D1048576</xm:sqref>
+          <xm:sqref>D596:D1048576 D2:D585 D590:D594</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -31387,15 +31584,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -31649,6 +31837,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -31663,14 +31860,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31686,6 +31875,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
+++ b/lib/us_core_test_kit/requirements/hl7.fhir.us.core_8.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edeyoung/Documents/inferno/us-core-test-kit/lib/us_core_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCE463-02EF-3B40-BA1A-210741E881CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE993AF-827B-1948-BF34-78DD418CA1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57340" yWindow="-6540" windowWidth="40380" windowHeight="28200" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="1169">
   <si>
     <r>
       <rPr>
@@ -5191,6 +5191,9 @@
   <si>
     <t>mandatory-and-must-support-data-elements</t>
   </si>
+  <si>
+    <t>Deprecated because this is in the structured definition and unnecessary as a separate requirement.</t>
+  </si>
 </sst>
 </file>
 
@@ -5428,7 +5431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -5652,12 +5655,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5784,6 +5813,18 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5805,18 +5846,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6190,14 +6225,14 @@
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="46"/>
       <c r="C5" s="26"/>
     </row>
@@ -6209,19 +6244,19 @@
       <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
     </row>
@@ -6249,14 +6284,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I650" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="V299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C591" sqref="C591"/>
+      <selection pane="bottomRight" activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6406,7 +6440,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6456,7 +6490,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -6510,7 +6544,7 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -6560,7 +6594,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -6610,7 +6644,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -6660,7 +6694,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -6710,7 +6744,7 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -6760,7 +6794,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:23" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -6810,7 +6844,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -7035,7 +7069,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -7380,7 +7414,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -7464,7 +7498,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -7503,7 +7537,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -7545,7 +7579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -7629,7 +7663,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -7665,7 +7699,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -7704,7 +7738,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -7743,7 +7777,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -7785,7 +7819,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -7821,7 +7855,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -7857,7 +7891,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -7893,7 +7927,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -7929,7 +7963,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -7965,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -8001,7 +8035,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -8505,7 +8539,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -8622,7 +8656,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -8658,7 +8692,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -8733,7 +8767,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -8769,7 +8803,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -8844,7 +8878,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -8880,7 +8914,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -8995,7 +9029,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -9076,7 +9110,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -9268,7 +9302,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -9307,7 +9341,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -9346,7 +9380,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:23" s="41" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="41" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -9553,7 +9587,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -9592,7 +9626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -9673,7 +9707,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -9709,7 +9743,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -9748,7 +9782,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -9790,7 +9824,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -9826,7 +9860,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -9928,7 +9962,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -10051,7 +10085,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -10096,7 +10130,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -10219,7 +10253,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -10339,7 +10373,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -10459,7 +10493,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -10534,7 +10568,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -10570,7 +10604,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -10606,7 +10640,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -10642,7 +10676,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -10678,7 +10712,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -10756,7 +10790,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -10795,7 +10829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -10829,7 +10863,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -10905,7 +10939,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -10989,7 +11023,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -11031,7 +11065,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -11073,7 +11107,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="272" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -11160,7 +11194,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -11202,7 +11236,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -11241,7 +11275,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -11529,7 +11563,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -11565,7 +11599,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -11601,7 +11635,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -11679,7 +11713,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -11757,7 +11791,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -12876,7 +12910,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -12915,7 +12949,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -13290,7 +13324,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -13425,7 +13459,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -13461,7 +13495,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -13536,7 +13570,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -13614,7 +13648,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -13653,7 +13687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -13692,7 +13726,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -13731,7 +13765,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -13770,7 +13804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -13809,7 +13843,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -13851,7 +13885,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -13896,7 +13930,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -13938,7 +13972,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -13977,7 +14011,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -14019,7 +14053,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -14064,7 +14098,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -14109,7 +14143,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -14154,7 +14188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -14193,7 +14227,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -14232,7 +14266,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -14274,7 +14308,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -14316,7 +14350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -14358,7 +14392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -14400,7 +14434,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -14439,7 +14473,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -14481,7 +14515,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -14523,7 +14557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -14565,7 +14599,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -14607,7 +14641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -14649,7 +14683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -14691,7 +14725,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -14730,7 +14764,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>201</v>
       </c>
@@ -14814,7 +14848,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -14853,7 +14887,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -14892,7 +14926,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -15393,7 +15427,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -15432,7 +15466,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
@@ -15471,7 +15505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -15594,7 +15628,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
@@ -15717,7 +15751,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -15756,7 +15790,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
@@ -15800,7 +15834,7 @@
       </c>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -15839,7 +15873,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
@@ -15867,7 +15901,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -15895,7 +15929,7 @@
         <v>support-requirements</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
@@ -15965,7 +15999,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
@@ -16004,7 +16038,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
@@ -16356,7 +16390,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
@@ -16387,7 +16421,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -16418,7 +16452,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -16449,7 +16483,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" ht="187" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -16480,7 +16514,7 @@
         <v>discovering-Server-read-and-write-formats</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -16561,7 +16595,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -16600,7 +16634,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -16684,7 +16718,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -16861,7 +16895,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
@@ -16948,7 +16982,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>257</v>
       </c>
@@ -16987,7 +17021,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>258</v>
       </c>
@@ -17029,7 +17063,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>259</v>
       </c>
@@ -17071,7 +17105,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>260</v>
       </c>
@@ -17116,7 +17150,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" ht="204" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>261</v>
       </c>
@@ -17158,7 +17192,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>262</v>
       </c>
@@ -17200,7 +17234,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>263</v>
       </c>
@@ -17239,7 +17273,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>264</v>
       </c>
@@ -17278,7 +17312,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>265</v>
       </c>
@@ -17362,7 +17396,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>267</v>
       </c>
@@ -17401,7 +17435,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>268</v>
       </c>
@@ -17482,7 +17516,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="356" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" ht="356" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>270</v>
       </c>
@@ -17524,7 +17558,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="356" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" ht="356" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>271</v>
       </c>
@@ -17566,7 +17600,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>272</v>
       </c>
@@ -17695,7 +17729,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
@@ -17734,7 +17768,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
@@ -17776,7 +17810,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>277</v>
       </c>
@@ -17818,7 +17852,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>278</v>
       </c>
@@ -17860,7 +17894,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
@@ -17902,7 +17936,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
@@ -17941,7 +17975,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -17980,7 +18014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -18016,7 +18050,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -18052,7 +18086,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -18088,7 +18122,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -18124,7 +18158,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
@@ -18160,7 +18194,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -18196,7 +18230,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
@@ -18232,7 +18266,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
@@ -18274,7 +18308,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
@@ -18310,7 +18344,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
@@ -18346,7 +18380,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
@@ -18388,7 +18422,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -18424,7 +18458,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
@@ -18460,7 +18494,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -18502,7 +18536,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -18541,7 +18575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -18580,7 +18614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>298</v>
       </c>
@@ -18619,7 +18653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>299</v>
       </c>
@@ -18700,7 +18734,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>301</v>
       </c>
@@ -18823,7 +18857,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -18834,7 +18868,7 @@
         <v>326</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>31</v>
@@ -18858,11 +18892,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
+      <c r="V305" s="74" t="s">
+        <v>1168</v>
+      </c>
       <c r="W305" s="6" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>305</v>
       </c>
@@ -18988,7 +19025,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>308</v>
       </c>
@@ -19027,7 +19064,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>309</v>
       </c>
@@ -19066,7 +19103,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>310</v>
       </c>
@@ -19105,7 +19142,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>311</v>
       </c>
@@ -19144,7 +19181,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>312</v>
       </c>
@@ -19225,7 +19262,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>314</v>
       </c>
@@ -19261,7 +19298,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>315</v>
       </c>
@@ -19297,7 +19334,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
         <v>316</v>
       </c>
@@ -19333,7 +19370,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
         <v>317</v>
       </c>
@@ -19450,7 +19487,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="7">
         <v>320</v>
       </c>
@@ -19531,7 +19568,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>322</v>
       </c>
@@ -19570,7 +19607,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" ht="221" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>323</v>
       </c>
@@ -19609,7 +19646,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="7">
         <v>324</v>
       </c>
@@ -19645,7 +19682,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="7">
         <v>325</v>
       </c>
@@ -19684,7 +19721,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>326</v>
       </c>
@@ -19726,7 +19763,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -19765,7 +19802,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="7">
         <v>328</v>
       </c>
@@ -19804,7 +19841,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="7">
         <v>329</v>
       </c>
@@ -19843,7 +19880,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>330</v>
       </c>
@@ -19882,7 +19919,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>331</v>
       </c>
@@ -19924,7 +19961,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
         <v>332</v>
       </c>
@@ -19963,7 +20000,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
         <v>333</v>
       </c>
@@ -20002,7 +20039,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>334</v>
       </c>
@@ -20038,7 +20075,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>335</v>
       </c>
@@ -20074,7 +20111,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>336</v>
       </c>
@@ -20110,7 +20147,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>337</v>
       </c>
@@ -20146,7 +20183,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>338</v>
       </c>
@@ -20182,7 +20219,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>339</v>
       </c>
@@ -20221,7 +20258,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>340</v>
       </c>
@@ -20257,7 +20294,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A342" s="7">
         <v>341</v>
       </c>
@@ -20371,7 +20408,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>344</v>
       </c>
@@ -20410,7 +20447,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>345</v>
       </c>
@@ -20449,7 +20486,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="7">
         <v>346</v>
       </c>
@@ -20485,7 +20522,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A348" s="7">
         <v>347</v>
       </c>
@@ -20521,7 +20558,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>348</v>
       </c>
@@ -20557,7 +20594,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>349</v>
       </c>
@@ -20593,7 +20630,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A351" s="7">
         <v>350</v>
       </c>
@@ -20629,7 +20666,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="7">
         <v>351</v>
       </c>
@@ -20665,7 +20702,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -20701,7 +20738,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -20737,7 +20774,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -20773,7 +20810,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -20893,7 +20930,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -20932,7 +20969,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -21010,7 +21047,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>361</v>
       </c>
@@ -21046,7 +21083,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
         <v>362</v>
       </c>
@@ -21082,7 +21119,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" s="7">
         <v>363</v>
       </c>
@@ -21121,7 +21158,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>364</v>
       </c>
@@ -21205,7 +21242,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A367" s="7">
         <v>366</v>
       </c>
@@ -21241,7 +21278,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A368" s="7">
         <v>367</v>
       </c>
@@ -21319,7 +21356,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A370" s="7">
         <v>369</v>
       </c>
@@ -21355,7 +21392,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="7">
         <v>370</v>
       </c>
@@ -21391,7 +21428,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A372" s="7">
         <v>371</v>
       </c>
@@ -21589,7 +21626,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="7">
         <v>376</v>
       </c>
@@ -21628,7 +21665,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="7">
         <v>377</v>
       </c>
@@ -21664,7 +21701,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A379" s="7">
         <v>378</v>
       </c>
@@ -21745,7 +21782,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="7">
         <v>380</v>
       </c>
@@ -21781,7 +21818,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -21901,7 +21938,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A385" s="7">
         <v>384</v>
       </c>
@@ -21940,7 +21977,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A386" s="7">
         <v>385</v>
       </c>
@@ -21979,7 +22016,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A387" s="7">
         <v>386</v>
       </c>
@@ -22057,7 +22094,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="7">
         <v>388</v>
       </c>
@@ -22093,7 +22130,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="7">
         <v>389</v>
       </c>
@@ -22213,7 +22250,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A393" s="7">
         <v>392</v>
       </c>
@@ -22252,7 +22289,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="7">
         <v>393</v>
       </c>
@@ -22288,7 +22325,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="7">
         <v>394</v>
       </c>
@@ -22324,7 +22361,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A396" s="7">
         <v>395</v>
       </c>
@@ -22360,7 +22397,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A397" s="7">
         <v>396</v>
       </c>
@@ -22438,7 +22475,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" s="7">
         <v>398</v>
       </c>
@@ -22477,7 +22514,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="7">
         <v>399</v>
       </c>
@@ -22513,7 +22550,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" s="7">
         <v>400</v>
       </c>
@@ -22633,7 +22670,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
         <v>403</v>
       </c>
@@ -22669,7 +22706,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>404</v>
       </c>
@@ -22795,7 +22832,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
         <v>407</v>
       </c>
@@ -22873,7 +22910,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>409</v>
       </c>
@@ -22909,7 +22946,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
         <v>410</v>
       </c>
@@ -22990,7 +23027,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
         <v>412</v>
       </c>
@@ -23032,7 +23069,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
         <v>413</v>
       </c>
@@ -23119,7 +23156,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" s="7">
         <v>415</v>
       </c>
@@ -23161,7 +23198,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A417" s="7">
         <v>416</v>
       </c>
@@ -23203,7 +23240,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A418" s="7">
         <v>417</v>
       </c>
@@ -23239,7 +23276,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="7">
         <v>418</v>
       </c>
@@ -23284,7 +23321,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="7">
         <v>419</v>
       </c>
@@ -23320,7 +23357,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="7">
         <v>420</v>
       </c>
@@ -23398,7 +23435,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" s="7">
         <v>422</v>
       </c>
@@ -23437,7 +23474,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A424" s="7">
         <v>423</v>
       </c>
@@ -23476,7 +23513,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A425" s="7">
         <v>424</v>
       </c>
@@ -23557,7 +23594,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" s="7">
         <v>426</v>
       </c>
@@ -23638,7 +23675,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A429" s="7">
         <v>428</v>
       </c>
@@ -23677,7 +23714,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A430" s="7">
         <v>429</v>
       </c>
@@ -23716,7 +23753,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" s="7">
         <v>430</v>
       </c>
@@ -23755,7 +23792,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A432" s="7">
         <v>431</v>
       </c>
@@ -23992,7 +24029,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A438" s="7">
         <v>437</v>
       </c>
@@ -24031,7 +24068,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A439" s="7">
         <v>438</v>
       </c>
@@ -24115,7 +24152,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" s="7">
         <v>440</v>
       </c>
@@ -24154,7 +24191,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A442" s="7">
         <v>441</v>
       </c>
@@ -24190,7 +24227,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" s="7">
         <v>442</v>
       </c>
@@ -24226,7 +24263,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A444" s="7">
         <v>443</v>
       </c>
@@ -24304,7 +24341,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A446" s="7">
         <v>445</v>
       </c>
@@ -24343,7 +24380,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A447" s="7">
         <v>446</v>
       </c>
@@ -24382,7 +24419,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A448" s="7">
         <v>447</v>
       </c>
@@ -24418,7 +24455,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>448</v>
       </c>
@@ -24454,7 +24491,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" s="7">
         <v>449</v>
       </c>
@@ -24577,7 +24614,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>452</v>
       </c>
@@ -24616,7 +24653,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <v>453</v>
       </c>
@@ -24655,7 +24692,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <v>454</v>
       </c>
@@ -24733,7 +24770,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>456</v>
       </c>
@@ -24769,7 +24806,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <v>457</v>
       </c>
@@ -24805,7 +24842,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <v>458</v>
       </c>
@@ -24931,7 +24968,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <v>461</v>
       </c>
@@ -24973,7 +25010,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>462</v>
       </c>
@@ -25147,7 +25184,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" s="7">
         <v>466</v>
       </c>
@@ -25178,7 +25215,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A468" s="7">
         <v>467</v>
       </c>
@@ -25217,7 +25254,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" s="7">
         <v>468</v>
       </c>
@@ -25298,7 +25335,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="404" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:23" ht="404" x14ac:dyDescent="0.2">
       <c r="A471" s="7">
         <v>470</v>
       </c>
@@ -25337,7 +25374,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>471</v>
       </c>
@@ -25379,7 +25416,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A473" s="7">
         <v>472</v>
       </c>
@@ -25457,7 +25494,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A475" s="7">
         <v>474</v>
       </c>
@@ -25538,7 +25575,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A477" s="7">
         <v>476</v>
       </c>
@@ -25571,7 +25608,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="7">
         <v>477</v>
       </c>
@@ -25607,7 +25644,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A479" s="7">
         <v>478</v>
       </c>
@@ -25643,7 +25680,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A480" s="7">
         <v>479</v>
       </c>
@@ -25679,7 +25716,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A481" s="7">
         <v>480</v>
       </c>
@@ -25718,7 +25755,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="7">
         <v>481</v>
       </c>
@@ -25799,7 +25836,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A484" s="7">
         <v>483</v>
       </c>
@@ -25886,7 +25923,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="486" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" s="7">
         <v>485</v>
       </c>
@@ -25973,7 +26010,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A488" s="7">
         <v>487</v>
       </c>
@@ -26015,7 +26052,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A489" s="7">
         <v>488</v>
       </c>
@@ -26840,7 +26877,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="510" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A510" s="7">
         <v>509</v>
       </c>
@@ -26882,7 +26919,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="511" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A511" s="7">
         <v>510</v>
       </c>
@@ -26960,7 +26997,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="513" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A513" s="7">
         <v>512</v>
       </c>
@@ -26999,7 +27036,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A514" s="7">
         <v>513</v>
       </c>
@@ -27035,7 +27072,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A515" s="7">
         <v>514</v>
       </c>
@@ -27074,7 +27111,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="516" spans="1:23" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:23" ht="289" x14ac:dyDescent="0.2">
       <c r="A516" s="7">
         <v>515</v>
       </c>
@@ -27158,7 +27195,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="518" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" s="7">
         <v>517</v>
       </c>
@@ -27245,7 +27282,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="520" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A520" s="7">
         <v>519</v>
       </c>
@@ -27332,7 +27369,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="522" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A522" s="7">
         <v>521</v>
       </c>
@@ -27374,7 +27411,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="523" spans="1:23" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A523" s="7">
         <v>522</v>
       </c>
@@ -27416,7 +27453,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="524" spans="1:23" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A524" s="7">
         <v>523</v>
       </c>
@@ -27494,7 +27531,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="526" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A526" s="7">
         <v>525</v>
       </c>
@@ -27530,7 +27567,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="527" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A527" s="7">
         <v>526</v>
       </c>
@@ -27566,7 +27603,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="528" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A528" s="7">
         <v>527</v>
       </c>
@@ -27605,7 +27642,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="7">
         <v>528</v>
       </c>
@@ -27641,7 +27678,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="7">
         <v>529</v>
       </c>
@@ -27677,7 +27714,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="7">
         <v>530</v>
       </c>
@@ -27713,7 +27750,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="7">
         <v>531</v>
       </c>
@@ -27749,7 +27786,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A533" s="7">
         <v>532</v>
       </c>
@@ -28044,7 +28081,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A542" s="7">
         <v>541</v>
       </c>
@@ -28072,7 +28109,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A543" s="7">
         <v>542</v>
       </c>
@@ -28134,7 +28171,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="545" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="7">
         <v>544</v>
       </c>
@@ -28162,7 +28199,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="546" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="7">
         <v>545</v>
       </c>
@@ -28190,7 +28227,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="547" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="7">
         <v>546</v>
       </c>
@@ -28218,7 +28255,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="7">
         <v>547</v>
       </c>
@@ -28246,7 +28283,7 @@
         <v>behavior</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A549" s="7">
         <v>548</v>
       </c>
@@ -28274,7 +28311,7 @@
         <v>valueset</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A550" s="7">
         <v>549</v>
       </c>
@@ -28336,7 +28373,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A552" s="7">
         <v>551</v>
       </c>
@@ -28364,7 +28401,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A553" s="7">
         <v>552</v>
       </c>
@@ -28392,7 +28429,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A554" s="7">
         <v>553</v>
       </c>
@@ -28420,7 +28457,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="555" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A555" s="7">
         <v>554</v>
       </c>
@@ -28448,7 +28485,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A556" s="7">
         <v>555</v>
       </c>
@@ -28476,7 +28513,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="557" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A557" s="7">
         <v>556</v>
       </c>
@@ -28504,7 +28541,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="558" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A558" s="7">
         <v>557</v>
       </c>
@@ -28563,7 +28600,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A560" s="7">
         <v>559</v>
       </c>
@@ -28591,7 +28628,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="561" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A561" s="7">
         <v>560</v>
       </c>
@@ -28619,7 +28656,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="562" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A562" s="7">
         <v>561</v>
       </c>
@@ -28678,7 +28715,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="564" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="7">
         <v>563</v>
       </c>
@@ -28737,7 +28774,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="566" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A566" s="7">
         <v>565</v>
       </c>
@@ -28765,7 +28802,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="567" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="7">
         <v>566</v>
       </c>
@@ -28793,7 +28830,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="568" spans="1:23" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="7">
         <v>567</v>
       </c>
@@ -28852,7 +28889,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="570" spans="1:23" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A570" s="7">
         <v>569</v>
       </c>
@@ -28911,7 +28948,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" spans="1:23" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A572" s="7">
         <v>571</v>
       </c>
@@ -28973,7 +29010,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="574" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A574" s="7">
         <v>573</v>
       </c>
@@ -29001,7 +29038,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="575" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A575" s="7">
         <v>574</v>
       </c>
@@ -29029,7 +29066,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="576" spans="1:23" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A576" s="7">
         <v>575</v>
       </c>
@@ -29057,7 +29094,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="577" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" s="7">
         <v>576</v>
       </c>
@@ -29085,7 +29122,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="578" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" s="7">
         <v>577</v>
       </c>
@@ -29113,7 +29150,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="579" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" s="7">
         <v>578</v>
       </c>
@@ -29141,7 +29178,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="580" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A580" s="7">
         <v>579</v>
       </c>
@@ -29169,7 +29206,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="581" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A581" s="7">
         <v>580</v>
       </c>
@@ -29197,7 +29234,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="582" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A582" s="7">
         <v>581</v>
       </c>
@@ -29225,7 +29262,7 @@
         <v>patient-privacy-and-security</v>
       </c>
     </row>
-    <row r="583" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" s="7">
         <v>582</v>
       </c>
@@ -29332,7 +29369,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="586" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A586" s="7">
         <v>585</v>
       </c>
@@ -29343,7 +29380,7 @@
         <v>1162</v>
       </c>
       <c r="D586" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E586" s="7" t="s">
         <v>31</v>
@@ -29364,11 +29401,14 @@
         <v/>
       </c>
       <c r="P586" s="10" t="str">
-        <f t="shared" ref="P586:P588" si="26">IF(ISNUMBER(SEARCH("server", C586)), "Server", IF(ISNUMBER(SEARCH("Server", C586)), "Server", IF(ISNUMBER(SEARCH("client", C586)), "Client", IF(ISNUMBER(SEARCH("Client", C586)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C586)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C586)), "Client", ""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="587" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P586:P587" si="26">IF(ISNUMBER(SEARCH("server", C586)), "Server", IF(ISNUMBER(SEARCH("Server", C586)), "Server", IF(ISNUMBER(SEARCH("client", C586)), "Client", IF(ISNUMBER(SEARCH("Client", C586)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C586)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C586)), "Client", ""))))))</f>
+        <v/>
+      </c>
+      <c r="V586" s="73" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="587" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A587" s="7">
         <v>586</v>
       </c>
@@ -29379,7 +29419,7 @@
         <v>1163</v>
       </c>
       <c r="D587" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E587" s="7" t="s">
         <v>31</v>
@@ -29403,15 +29443,18 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
+      <c r="V587" s="73" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="588" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A588" s="7">
         <v>587</v>
       </c>
-      <c r="B588" s="67" t="s">
+      <c r="B588" s="60" t="s">
         <v>1161</v>
       </c>
-      <c r="C588" s="68" t="s">
+      <c r="C588" s="61" t="s">
         <v>1164</v>
       </c>
       <c r="D588" s="56" t="s">
@@ -29424,34 +29467,34 @@
       <c r="G588" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="H588" s="69"/>
-      <c r="I588" s="70"/>
-      <c r="J588" s="70"/>
-      <c r="K588" s="70"/>
-      <c r="L588" s="70"/>
-      <c r="M588" s="71" t="s">
+      <c r="H588" s="62"/>
+      <c r="I588" s="63"/>
+      <c r="J588" s="63"/>
+      <c r="K588" s="63"/>
+      <c r="L588" s="63"/>
+      <c r="M588" s="64" t="s">
         <v>1166</v>
       </c>
-      <c r="N588" s="71" t="s">
+      <c r="N588" s="64" t="s">
         <v>1167</v>
       </c>
-      <c r="O588" s="72"/>
-      <c r="P588" s="72"/>
-      <c r="Q588" s="72"/>
-      <c r="R588" s="72"/>
-      <c r="S588" s="69"/>
-      <c r="T588" s="72"/>
-      <c r="U588" s="69"/>
-      <c r="V588" s="69"/>
+      <c r="O588" s="65"/>
+      <c r="P588" s="65"/>
+      <c r="Q588" s="65"/>
+      <c r="R588" s="65"/>
+      <c r="S588" s="62"/>
+      <c r="T588" s="65"/>
+      <c r="U588" s="62"/>
+      <c r="V588" s="62"/>
     </row>
     <row r="589" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A589" s="7">
         <v>588</v>
       </c>
-      <c r="B589" s="67" t="s">
+      <c r="B589" s="60" t="s">
         <v>1161</v>
       </c>
-      <c r="C589" s="68" t="s">
+      <c r="C589" s="61" t="s">
         <v>1165</v>
       </c>
       <c r="D589" s="56" t="s">
@@ -29464,27 +29507,27 @@
       <c r="G589" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="H589" s="69"/>
-      <c r="I589" s="70"/>
-      <c r="J589" s="70"/>
-      <c r="K589" s="70"/>
-      <c r="L589" s="70"/>
-      <c r="M589" s="71" t="s">
+      <c r="H589" s="62"/>
+      <c r="I589" s="63"/>
+      <c r="J589" s="63"/>
+      <c r="K589" s="63"/>
+      <c r="L589" s="63"/>
+      <c r="M589" s="64" t="s">
         <v>1166</v>
       </c>
-      <c r="N589" s="71" t="s">
+      <c r="N589" s="64" t="s">
         <v>1167</v>
       </c>
-      <c r="O589" s="72"/>
-      <c r="P589" s="72"/>
-      <c r="Q589" s="72"/>
-      <c r="R589" s="72"/>
-      <c r="S589" s="69"/>
-      <c r="T589" s="72"/>
-      <c r="U589" s="69"/>
-      <c r="V589" s="69"/>
-    </row>
-    <row r="590" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O589" s="65"/>
+      <c r="P589" s="65"/>
+      <c r="Q589" s="65"/>
+      <c r="R589" s="65"/>
+      <c r="S589" s="62"/>
+      <c r="T589" s="65"/>
+      <c r="U589" s="62"/>
+      <c r="V589" s="62"/>
+    </row>
+    <row r="590" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A590" s="7">
         <v>800</v>
       </c>
@@ -29813,7 +29856,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="601" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A601" s="7">
         <v>813</v>
       </c>
@@ -29871,7 +29914,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="603" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A603" s="7">
         <v>815</v>
       </c>
@@ -29894,7 +29937,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="604" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A604" s="7">
         <v>816</v>
       </c>
@@ -29917,7 +29960,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="605" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A605" s="7">
         <v>817</v>
       </c>
@@ -30021,7 +30064,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="609" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A609" s="7">
         <v>821</v>
       </c>
@@ -30122,7 +30165,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="613" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A613" s="7">
         <v>825</v>
       </c>
@@ -30142,7 +30185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A614" s="7">
         <v>826</v>
       </c>
@@ -30188,7 +30231,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="616" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A616" s="7">
         <v>828</v>
       </c>
@@ -30208,7 +30251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:24" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A617" s="7">
         <v>829</v>
       </c>
@@ -30228,7 +30271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="7">
         <v>830</v>
       </c>
@@ -30332,7 +30375,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="622" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A622" s="7">
         <v>834</v>
       </c>
@@ -30352,7 +30395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:24" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A623" s="7">
         <v>835</v>
       </c>
@@ -30372,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A624" s="7">
         <v>836</v>
       </c>
@@ -30395,7 +30438,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="625" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A625" s="7">
         <v>837</v>
       </c>
@@ -30415,7 +30458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A626" s="7">
         <v>838</v>
       </c>
@@ -30435,7 +30478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A627" s="7">
         <v>839</v>
       </c>
@@ -30490,7 +30533,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="629" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>841</v>
       </c>
@@ -30536,7 +30579,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="631" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A631" s="7">
         <v>843</v>
       </c>
@@ -30559,7 +30602,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="632" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A632" s="7">
         <v>844</v>
       </c>
@@ -30637,7 +30680,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="635" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A635" s="7">
         <v>847</v>
       </c>
@@ -30657,7 +30700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A636" s="7">
         <v>848</v>
       </c>
@@ -30677,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:24" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A637" s="7">
         <v>849</v>
       </c>
@@ -30697,7 +30740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A638" s="7">
         <v>850</v>
       </c>
@@ -30717,7 +30760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:24" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A639" s="7">
         <v>851</v>
       </c>
@@ -30769,7 +30812,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="641" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A641" s="7">
         <v>853</v>
       </c>
@@ -30792,7 +30835,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="642" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A642" s="7">
         <v>854</v>
       </c>
@@ -30815,7 +30858,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="643" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A643" s="7">
         <v>855</v>
       </c>
@@ -30864,7 +30907,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="645" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A645" s="7">
         <v>857</v>
       </c>
@@ -30884,7 +30927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A646" s="7">
         <v>858</v>
       </c>
@@ -30904,7 +30947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A647" s="7">
         <v>859</v>
       </c>
@@ -30924,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:24" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A648" s="7">
         <v>860</v>
       </c>
@@ -30944,7 +30987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:24" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A649" s="7">
         <v>861</v>
       </c>
@@ -30999,7 +31042,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="651" spans="1:24" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A651" s="7">
         <v>863</v>
       </c>
@@ -31057,7 +31100,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="653" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A653" s="7">
         <v>865</v>
       </c>
@@ -31115,7 +31158,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="655" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A655" s="7">
         <v>867</v>
       </c>
@@ -31164,7 +31207,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="657" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A657" s="7">
         <v>869</v>
       </c>
@@ -31213,7 +31256,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="659" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A659" s="7">
         <v>871</v>
       </c>
@@ -31266,19 +31309,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X660" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SHALL"/>
-        <filter val="SHALL NOT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Server"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X660" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B169" r:id="rId1" location="additional-us-core-requirements" xr:uid="{1640FE42-DDC3-4648-AFAA-22D5D9D70232}"/>
@@ -31339,14 +31370,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -31584,6 +31615,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -31837,29 +31890,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0A19-6928-4F0B-831A-5B9FDDD3F6CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31877,30 +31934,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>